--- a/analysis/metadata/P11_2/P11_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P11_2/P11_2_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5590,7 +5590,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6370,7 +6370,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6941,7 +6941,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6994,7 +6994,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -7150,7 +7150,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7696,7 +7696,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7799,7 +7799,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -8189,7 +8189,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -8267,7 +8267,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8866,7 +8866,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -8944,7 +8944,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -9022,7 +9022,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -9125,7 +9125,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -9178,7 +9178,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -9203,7 +9203,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -9359,7 +9359,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -9437,7 +9437,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -9490,7 +9490,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -9515,7 +9515,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -9593,7 +9593,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -9671,7 +9671,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -9802,7 +9802,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -9958,7 +9958,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -10036,7 +10036,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -10061,7 +10061,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -10139,7 +10139,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -10192,7 +10192,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -10426,7 +10426,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -10607,7 +10607,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -10660,7 +10660,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -10738,7 +10738,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10841,7 +10841,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -10894,7 +10894,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -10972,7 +10972,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10997,7 +10997,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -11050,7 +11050,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -11075,7 +11075,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -11206,7 +11206,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -11284,7 +11284,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -11309,7 +11309,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -11362,7 +11362,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -11387,7 +11387,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -11440,7 +11440,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -11465,7 +11465,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -11518,7 +11518,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -11674,7 +11674,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -11777,7 +11777,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -11830,7 +11830,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11855,7 +11855,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11933,7 +11933,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -11986,7 +11986,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -12064,7 +12064,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -12142,7 +12142,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -12167,7 +12167,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -12298,7 +12298,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -12401,7 +12401,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -12454,7 +12454,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -12479,7 +12479,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -12532,7 +12532,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>14/12/2021 10:55</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">

--- a/analysis/metadata/P11_2/P11_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P11_2/P11_2_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5590,7 +5590,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6370,7 +6370,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6941,7 +6941,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6994,7 +6994,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -7150,7 +7150,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7696,7 +7696,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7799,7 +7799,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -8189,7 +8189,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -8267,7 +8267,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8866,7 +8866,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -8944,7 +8944,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -9022,7 +9022,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -9125,7 +9125,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -9178,7 +9178,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -9203,7 +9203,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -9359,7 +9359,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -9437,7 +9437,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -9490,7 +9490,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -9515,7 +9515,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -9593,7 +9593,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -9671,7 +9671,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -9802,7 +9802,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -9958,7 +9958,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -10036,7 +10036,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -10061,7 +10061,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -10139,7 +10139,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -10192,7 +10192,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -10426,7 +10426,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -10607,7 +10607,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -10660,7 +10660,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -10738,7 +10738,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10841,7 +10841,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -10894,7 +10894,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -10972,7 +10972,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10997,7 +10997,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -11050,7 +11050,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -11075,7 +11075,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -11206,7 +11206,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -11284,7 +11284,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -11309,7 +11309,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -11362,7 +11362,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -11387,7 +11387,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -11440,7 +11440,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -11465,7 +11465,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -11518,7 +11518,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -11674,7 +11674,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -11777,7 +11777,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -11830,7 +11830,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11855,7 +11855,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11933,7 +11933,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -11986,7 +11986,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -12064,7 +12064,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -12142,7 +12142,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -12167,7 +12167,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -12298,7 +12298,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -12401,7 +12401,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -12454,7 +12454,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -12479,7 +12479,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -12532,7 +12532,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>14/12/2021 10:55</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">

--- a/analysis/metadata/P11_2/P11_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P11_2/P11_2_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5590,7 +5590,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6370,7 +6370,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6941,7 +6941,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6994,7 +6994,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -7150,7 +7150,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7696,7 +7696,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7799,7 +7799,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -8189,7 +8189,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -8267,7 +8267,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8866,7 +8866,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -8944,7 +8944,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -9022,7 +9022,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -9125,7 +9125,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -9178,7 +9178,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -9203,7 +9203,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -9359,7 +9359,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -9437,7 +9437,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -9490,7 +9490,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -9515,7 +9515,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -9593,7 +9593,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -9671,7 +9671,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -9802,7 +9802,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -9958,7 +9958,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -10036,7 +10036,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -10061,7 +10061,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -10139,7 +10139,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -10192,7 +10192,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -10426,7 +10426,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -10607,7 +10607,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -10660,7 +10660,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -10738,7 +10738,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10841,7 +10841,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -10894,7 +10894,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -10972,7 +10972,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10997,7 +10997,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -11050,7 +11050,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -11075,7 +11075,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -11206,7 +11206,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -11284,7 +11284,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -11309,7 +11309,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -11362,7 +11362,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -11387,7 +11387,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -11440,7 +11440,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -11465,7 +11465,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -11518,7 +11518,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -11674,7 +11674,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -11777,7 +11777,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -11830,7 +11830,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11855,7 +11855,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11933,7 +11933,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -11986,7 +11986,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -12064,7 +12064,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -12142,7 +12142,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -12167,7 +12167,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -12298,7 +12298,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -12401,7 +12401,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -12454,7 +12454,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -12479,7 +12479,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -12532,7 +12532,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">

--- a/analysis/metadata/P11_2/P11_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P11_2/P11_2_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P157"/>
+  <dimension ref="A1:P159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3141,7 +3141,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MFD10234</t>
+          <t>MFD10233</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3149,35 +3149,19 @@
           <t>sediment</t>
         </is>
       </c>
-      <c r="C37">
-        <v>54.919</v>
-      </c>
-      <c r="D37">
-        <v>11.4921</v>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>coast</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1103</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>bandholm</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>c18eb1</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3197,29 +3181,14 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Saltwater</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>2021-12-14</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MFD10235</t>
+          <t>MFD10233</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3227,35 +3196,19 @@
           <t>sediment</t>
         </is>
       </c>
-      <c r="C38">
-        <v>55.6798</v>
-      </c>
-      <c r="D38">
-        <v>12.0689</v>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>fjords</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1302</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>roskilde fjord</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>c18eb1</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3275,29 +3228,14 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Saltwater</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Rocky fjord seabed</t>
+          <t>2021-12-14</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MFD10236</t>
+          <t>MFD10234</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3306,10 +3244,10 @@
         </is>
       </c>
       <c r="C39">
-        <v>57.5959</v>
+        <v>54.919</v>
       </c>
       <c r="D39">
-        <v>9.9574</v>
+        <v>11.4921</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3318,12 +3256,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>hirtshals</t>
+          <t>bandholm</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3333,7 +3271,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3368,14 +3306,14 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MFD10237</t>
+          <t>MFD10235</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3384,24 +3322,24 @@
         </is>
       </c>
       <c r="C40">
-        <v>55.4824</v>
+        <v>55.6798</v>
       </c>
       <c r="D40">
-        <v>9.7151</v>
+        <v>12.0689</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>middelfart</t>
+          <t>roskilde fjord</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3411,7 +3349,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3441,19 +3379,19 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MFD10238</t>
+          <t>MFD10236</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3462,24 +3400,24 @@
         </is>
       </c>
       <c r="C41">
-        <v>56.7062</v>
+        <v>57.5959</v>
       </c>
       <c r="D41">
-        <v>9.201599999999999</v>
+        <v>9.9574</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>hvalpsund</t>
+          <t>hirtshals</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3519,19 +3457,19 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MFD10239</t>
+          <t>MFD10237</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3540,10 +3478,10 @@
         </is>
       </c>
       <c r="C42">
-        <v>55.7514</v>
+        <v>55.4824</v>
       </c>
       <c r="D42">
-        <v>12.5935</v>
+        <v>9.7151</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3552,12 +3490,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>øresund</t>
+          <t>middelfart</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3567,7 +3505,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3602,14 +3540,14 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MFD10240</t>
+          <t>MFD10238</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3618,24 +3556,24 @@
         </is>
       </c>
       <c r="C43">
-        <v>54.9551</v>
+        <v>56.7062</v>
       </c>
       <c r="D43">
-        <v>12.4624</v>
+        <v>9.201599999999999</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>møn</t>
+          <t>hvalpsund</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3675,19 +3613,19 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MFD10241</t>
+          <t>MFD10239</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3696,10 +3634,10 @@
         </is>
       </c>
       <c r="C44">
-        <v>57.3214</v>
+        <v>55.7514</v>
       </c>
       <c r="D44">
-        <v>11.1282</v>
+        <v>12.5935</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3708,12 +3646,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>læsø</t>
+          <t>øresund</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3723,7 +3661,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3758,14 +3696,14 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MFD10242</t>
+          <t>MFD10240</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3774,24 +3712,24 @@
         </is>
       </c>
       <c r="C45">
-        <v>55.703</v>
+        <v>54.9551</v>
       </c>
       <c r="D45">
-        <v>9.6995</v>
+        <v>12.4624</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>vejle fjord</t>
+          <t>møn</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3831,19 +3769,19 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MFD10243</t>
+          <t>MFD10241</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3852,10 +3790,10 @@
         </is>
       </c>
       <c r="C46">
-        <v>57.3387</v>
+        <v>57.3214</v>
       </c>
       <c r="D46">
-        <v>10.526</v>
+        <v>11.1282</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3869,7 +3807,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>frederikshavn</t>
+          <t>læsø</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3921,7 +3859,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MFD10244</t>
+          <t>MFD10242</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3930,24 +3868,24 @@
         </is>
       </c>
       <c r="C47">
-        <v>55.9672</v>
+        <v>55.703</v>
       </c>
       <c r="D47">
-        <v>11.8442</v>
+        <v>9.6995</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>hundested</t>
+          <t>vejle fjord</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3987,19 +3925,19 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MFD10245</t>
+          <t>MFD10243</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4008,10 +3946,10 @@
         </is>
       </c>
       <c r="C48">
-        <v>55.7546</v>
+        <v>57.3387</v>
       </c>
       <c r="D48">
-        <v>11.3223</v>
+        <v>10.526</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4025,7 +3963,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>frederikshavn</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4077,7 +4015,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MFD10246</t>
+          <t>MFD10244</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4086,10 +4024,10 @@
         </is>
       </c>
       <c r="C49">
-        <v>54.9501</v>
+        <v>55.9672</v>
       </c>
       <c r="D49">
-        <v>12.4757</v>
+        <v>11.8442</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -4098,12 +4036,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>møn</t>
+          <t>hundested</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4113,7 +4051,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4148,14 +4086,14 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MFD10247</t>
+          <t>MFD10245</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4164,10 +4102,10 @@
         </is>
       </c>
       <c r="C50">
-        <v>56.8039</v>
+        <v>55.7546</v>
       </c>
       <c r="D50">
-        <v>10.2823</v>
+        <v>11.3223</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -4181,7 +4119,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>øster hurup</t>
+          <t>røsnæs</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4233,7 +4171,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MFD10248</t>
+          <t>MFD10246</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4242,10 +4180,10 @@
         </is>
       </c>
       <c r="C51">
-        <v>55.9689</v>
+        <v>54.9501</v>
       </c>
       <c r="D51">
-        <v>11.8461</v>
+        <v>12.4757</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -4259,7 +4197,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>hundested</t>
+          <t>møn</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4311,7 +4249,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MFD10249</t>
+          <t>MFD10247</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4320,10 +4258,10 @@
         </is>
       </c>
       <c r="C52">
-        <v>55.9513</v>
+        <v>56.8039</v>
       </c>
       <c r="D52">
-        <v>11.8471</v>
+        <v>10.2823</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -4332,12 +4270,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>hundested</t>
+          <t>øster hurup</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4347,7 +4285,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4382,14 +4320,14 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MFD10250</t>
+          <t>MFD10248</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4398,10 +4336,10 @@
         </is>
       </c>
       <c r="C53">
-        <v>55.0224</v>
+        <v>55.9689</v>
       </c>
       <c r="D53">
-        <v>14.9037</v>
+        <v>11.8461</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -4410,12 +4348,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>bornholm nord</t>
+          <t>hundested</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4425,7 +4363,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4460,14 +4398,14 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MFD10251</t>
+          <t>MFD10249</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4476,10 +4414,10 @@
         </is>
       </c>
       <c r="C54">
-        <v>57.3191</v>
+        <v>55.9513</v>
       </c>
       <c r="D54">
-        <v>10.5321</v>
+        <v>11.8471</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -4488,12 +4426,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>frederikshavn</t>
+          <t>hundested</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4503,7 +4441,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4538,14 +4476,14 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MFD10252</t>
+          <t>MFD10250</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4554,10 +4492,10 @@
         </is>
       </c>
       <c r="C55">
-        <v>57.5921</v>
+        <v>55.0224</v>
       </c>
       <c r="D55">
-        <v>9.9472</v>
+        <v>14.9037</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -4566,12 +4504,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>hirtshals</t>
+          <t>bornholm nord</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4581,7 +4519,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4616,14 +4554,14 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MFD10253</t>
+          <t>MFD10251</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4632,10 +4570,10 @@
         </is>
       </c>
       <c r="C56">
-        <v>55.0401</v>
+        <v>57.3191</v>
       </c>
       <c r="D56">
-        <v>10.2543</v>
+        <v>10.5321</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -4644,12 +4582,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>dyreborg sydfyn</t>
+          <t>frederikshavn</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4659,7 +4597,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4694,14 +4632,14 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MFD10254</t>
+          <t>MFD10252</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4710,24 +4648,24 @@
         </is>
       </c>
       <c r="C57">
-        <v>55.5021</v>
+        <v>57.5921</v>
       </c>
       <c r="D57">
-        <v>10.6131</v>
+        <v>9.9472</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>odense fjord</t>
+          <t>hirtshals</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4737,7 +4675,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4767,19 +4705,19 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MFD10255</t>
+          <t>MFD10253</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4788,10 +4726,10 @@
         </is>
       </c>
       <c r="C58">
-        <v>55.4722</v>
+        <v>55.0401</v>
       </c>
       <c r="D58">
-        <v>9.724299999999999</v>
+        <v>10.2543</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -4800,12 +4738,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>middelfart</t>
+          <t>dyreborg sydfyn</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4815,7 +4753,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4850,14 +4788,14 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MFD10256</t>
+          <t>MFD10254</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4866,24 +4804,24 @@
         </is>
       </c>
       <c r="C59">
-        <v>55.2521</v>
+        <v>55.5021</v>
       </c>
       <c r="D59">
-        <v>14.8263</v>
+        <v>10.6131</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>bornholm syd</t>
+          <t>odense fjord</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4893,7 +4831,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4923,19 +4861,19 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MFD10257</t>
+          <t>MFD10255</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4944,10 +4882,10 @@
         </is>
       </c>
       <c r="C60">
-        <v>54.885</v>
+        <v>55.4722</v>
       </c>
       <c r="D60">
-        <v>11.0135</v>
+        <v>9.724299999999999</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -4961,7 +4899,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>spodsbjerg lolland</t>
+          <t>middelfart</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -5013,7 +4951,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MFD10258</t>
+          <t>MFD10256</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5022,10 +4960,10 @@
         </is>
       </c>
       <c r="C61">
-        <v>56.0445</v>
+        <v>55.2521</v>
       </c>
       <c r="D61">
-        <v>12.6091</v>
+        <v>14.8263</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -5034,12 +4972,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>helsingør</t>
+          <t>bornholm syd</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -5049,7 +4987,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -5084,14 +5022,14 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MFD10260</t>
+          <t>MFD10257</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5100,24 +5038,24 @@
         </is>
       </c>
       <c r="C62">
-        <v>57.055</v>
+        <v>54.885</v>
       </c>
       <c r="D62">
-        <v>9.8705</v>
+        <v>11.0135</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>aalborg</t>
+          <t>spodsbjerg lolland</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -5127,7 +5065,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -5157,19 +5095,19 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MFD10261</t>
+          <t>MFD10258</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5178,10 +5116,10 @@
         </is>
       </c>
       <c r="C63">
-        <v>55.1182</v>
+        <v>56.0445</v>
       </c>
       <c r="D63">
-        <v>9.488200000000001</v>
+        <v>12.6091</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -5195,7 +5133,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>genner bugt</t>
+          <t>helsingør</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -5247,7 +5185,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MFD10262</t>
+          <t>MFD10260</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5256,24 +5194,24 @@
         </is>
       </c>
       <c r="C64">
-        <v>55.759</v>
+        <v>57.055</v>
       </c>
       <c r="D64">
-        <v>11.3175</v>
+        <v>9.8705</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>aalborg</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5283,7 +5221,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -5313,19 +5251,19 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MFD10263</t>
+          <t>MFD10261</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5334,24 +5272,24 @@
         </is>
       </c>
       <c r="C65">
-        <v>56.6097</v>
+        <v>55.1182</v>
       </c>
       <c r="D65">
-        <v>10.3029</v>
+        <v>9.488200000000001</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>randers fjord</t>
+          <t>genner bugt</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5361,7 +5299,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -5391,19 +5329,19 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MFD10264</t>
+          <t>MFD10262</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5412,24 +5350,24 @@
         </is>
       </c>
       <c r="C66">
-        <v>56.7105</v>
+        <v>55.759</v>
       </c>
       <c r="D66">
-        <v>9.207000000000001</v>
+        <v>11.3175</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>hvalpsund</t>
+          <t>røsnæs</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5469,19 +5407,19 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MFD10265</t>
+          <t>MFD10263</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5490,24 +5428,24 @@
         </is>
       </c>
       <c r="C67">
-        <v>55.759</v>
+        <v>56.6097</v>
       </c>
       <c r="D67">
-        <v>12.6027</v>
+        <v>10.3029</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>øresund</t>
+          <t>randers fjord</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5547,19 +5485,19 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MFD10266</t>
+          <t>MFD10264</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5568,24 +5506,24 @@
         </is>
       </c>
       <c r="C68">
-        <v>56.1388</v>
+        <v>56.7105</v>
       </c>
       <c r="D68">
-        <v>10.2194</v>
+        <v>9.207000000000001</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>aarhus</t>
+          <t>hvalpsund</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5595,7 +5533,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -5625,19 +5563,19 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MFD10267</t>
+          <t>MFD10265</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5646,10 +5584,10 @@
         </is>
       </c>
       <c r="C69">
-        <v>55.4464</v>
+        <v>55.759</v>
       </c>
       <c r="D69">
-        <v>8.406599999999999</v>
+        <v>12.6027</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -5663,7 +5601,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>vadehavet</t>
+          <t>øresund</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5715,7 +5653,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MFD10268</t>
+          <t>MFD10266</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5724,10 +5662,10 @@
         </is>
       </c>
       <c r="C70">
-        <v>55.5674</v>
+        <v>56.1388</v>
       </c>
       <c r="D70">
-        <v>12.2865</v>
+        <v>10.2194</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -5741,7 +5679,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>køge bugt</t>
+          <t>aarhus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5793,7 +5731,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MFD10269</t>
+          <t>MFD10267</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5802,10 +5740,10 @@
         </is>
       </c>
       <c r="C71">
-        <v>55.328</v>
+        <v>55.4464</v>
       </c>
       <c r="D71">
-        <v>11.1284</v>
+        <v>8.406599999999999</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -5819,7 +5757,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>halsskov</t>
+          <t>vadehavet</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5871,7 +5809,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MFD10270</t>
+          <t>MFD10268</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5880,24 +5818,24 @@
         </is>
       </c>
       <c r="C72">
-        <v>56.5539</v>
+        <v>55.5674</v>
       </c>
       <c r="D72">
-        <v>8.610099999999999</v>
+        <v>12.2865</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>venø</t>
+          <t>køge bugt</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5907,7 +5845,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5937,19 +5875,19 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MFD10271</t>
+          <t>MFD10269</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5958,24 +5896,24 @@
         </is>
       </c>
       <c r="C73">
-        <v>55.1701</v>
+        <v>55.328</v>
       </c>
       <c r="D73">
-        <v>12.0908</v>
+        <v>11.1284</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>præstø fjord</t>
+          <t>halsskov</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -6015,19 +5953,19 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MFD10272</t>
+          <t>MFD10270</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -6036,24 +5974,24 @@
         </is>
       </c>
       <c r="C74">
-        <v>57.1265</v>
+        <v>56.5539</v>
       </c>
       <c r="D74">
-        <v>8.620799999999999</v>
+        <v>8.610099999999999</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>hanstholm</t>
+          <t>venø</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -6063,7 +6001,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -6093,19 +6031,19 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MFD10273</t>
+          <t>MFD10271</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6114,24 +6052,24 @@
         </is>
       </c>
       <c r="C75">
-        <v>55.0648</v>
+        <v>55.1701</v>
       </c>
       <c r="D75">
-        <v>10.2187</v>
+        <v>12.0908</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>dyreborg sydfyn</t>
+          <t>præstø fjord</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6141,7 +6079,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -6171,19 +6109,19 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MFD10274</t>
+          <t>MFD10272</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6192,24 +6130,24 @@
         </is>
       </c>
       <c r="C76">
-        <v>55.4862</v>
+        <v>57.1265</v>
       </c>
       <c r="D76">
-        <v>10.5984</v>
+        <v>8.620799999999999</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>odense fjord</t>
+          <t>hanstholm</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -6249,19 +6187,19 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MFD10275</t>
+          <t>MFD10273</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6270,10 +6208,10 @@
         </is>
       </c>
       <c r="C77">
-        <v>55.7588</v>
+        <v>55.0648</v>
       </c>
       <c r="D77">
-        <v>11.3493</v>
+        <v>10.2187</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -6287,7 +6225,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>dyreborg sydfyn</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6339,7 +6277,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MFD10276</t>
+          <t>MFD10274</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6348,24 +6286,24 @@
         </is>
       </c>
       <c r="C78">
-        <v>55.3475</v>
+        <v>55.4862</v>
       </c>
       <c r="D78">
-        <v>11.1011</v>
+        <v>10.5984</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>halsskov</t>
+          <t>odense fjord</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -6375,7 +6313,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6405,19 +6343,19 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MFD10278</t>
+          <t>MFD10275</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6426,24 +6364,24 @@
         </is>
       </c>
       <c r="C79">
-        <v>55.7003</v>
+        <v>55.7588</v>
       </c>
       <c r="D79">
-        <v>9.710900000000001</v>
+        <v>11.3493</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>vejle fjord</t>
+          <t>røsnæs</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -6483,19 +6421,19 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MFD10279</t>
+          <t>MFD10276</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6504,10 +6442,10 @@
         </is>
       </c>
       <c r="C80">
-        <v>55.5693</v>
+        <v>55.3475</v>
       </c>
       <c r="D80">
-        <v>12.2888</v>
+        <v>11.1011</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -6521,7 +6459,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>køge bugt</t>
+          <t>halsskov</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -6573,7 +6511,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MFD10280</t>
+          <t>MFD10278</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6582,10 +6520,10 @@
         </is>
       </c>
       <c r="C81">
-        <v>55.4941</v>
+        <v>55.7003</v>
       </c>
       <c r="D81">
-        <v>10.6182</v>
+        <v>9.710900000000001</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -6599,12 +6537,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>odense fjord</t>
+          <t>vejle fjord</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6629,7 +6567,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6651,7 +6589,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MFD10281</t>
+          <t>MFD10279</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6660,10 +6598,10 @@
         </is>
       </c>
       <c r="C82">
-        <v>55.4824</v>
+        <v>55.5693</v>
       </c>
       <c r="D82">
-        <v>9.7151</v>
+        <v>12.2888</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -6672,22 +6610,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>middelfart</t>
+          <t>køge bugt</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6707,7 +6645,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6722,14 +6660,14 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MFD10282</t>
+          <t>MFD10280</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6738,24 +6676,24 @@
         </is>
       </c>
       <c r="C83">
-        <v>55.0401</v>
+        <v>55.4941</v>
       </c>
       <c r="D83">
-        <v>10.2543</v>
+        <v>10.6182</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>dyreborg sydfyn</t>
+          <t>odense fjord</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6765,7 +6703,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -6795,19 +6733,19 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MFD10283</t>
+          <t>MFD10281</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6816,24 +6754,24 @@
         </is>
       </c>
       <c r="C84">
-        <v>55.1359</v>
+        <v>55.4824</v>
       </c>
       <c r="D84">
-        <v>12.1073</v>
+        <v>9.7151</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>præstø fjord</t>
+          <t>middelfart</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -6843,7 +6781,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6873,19 +6811,19 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MFD10284</t>
+          <t>MFD10282</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6894,24 +6832,24 @@
         </is>
       </c>
       <c r="C85">
-        <v>55.1701</v>
+        <v>55.0401</v>
       </c>
       <c r="D85">
-        <v>12.0908</v>
+        <v>10.2543</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>præstø fjord</t>
+          <t>dyreborg sydfyn</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -6951,19 +6889,19 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MFD10285</t>
+          <t>MFD10283</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6972,24 +6910,24 @@
         </is>
       </c>
       <c r="C86">
-        <v>55.4898</v>
+        <v>55.1359</v>
       </c>
       <c r="D86">
-        <v>9.728</v>
+        <v>12.1073</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>middelfart</t>
+          <t>præstø fjord</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -6999,7 +6937,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -7029,19 +6967,19 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MFD10286</t>
+          <t>MFD10284</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -7050,24 +6988,24 @@
         </is>
       </c>
       <c r="C87">
-        <v>57.5921</v>
+        <v>55.1701</v>
       </c>
       <c r="D87">
-        <v>9.9472</v>
+        <v>12.0908</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>hirtshals</t>
+          <t>præstø fjord</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -7077,7 +7015,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -7107,19 +7045,19 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MFD10287</t>
+          <t>MFD10285</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -7128,10 +7066,10 @@
         </is>
       </c>
       <c r="C88">
-        <v>54.8803</v>
+        <v>55.4898</v>
       </c>
       <c r="D88">
-        <v>11.0176</v>
+        <v>9.728</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -7145,7 +7083,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>spodsbjerg lolland</t>
+          <t>middelfart</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -7197,7 +7135,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MFD10288</t>
+          <t>MFD10286</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -7206,10 +7144,10 @@
         </is>
       </c>
       <c r="C89">
-        <v>57.1398</v>
+        <v>57.5921</v>
       </c>
       <c r="D89">
-        <v>10.4295</v>
+        <v>9.9472</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -7223,7 +7161,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>frederikshavn</t>
+          <t>hirtshals</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -7275,7 +7213,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MFD10289</t>
+          <t>MFD10287</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -7284,10 +7222,10 @@
         </is>
       </c>
       <c r="C90">
-        <v>54.9501</v>
+        <v>54.8803</v>
       </c>
       <c r="D90">
-        <v>12.4757</v>
+        <v>11.0176</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -7296,12 +7234,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>møn</t>
+          <t>spodsbjerg lolland</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -7311,7 +7249,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -7346,14 +7284,14 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MFD10290</t>
+          <t>MFD10288</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -7362,10 +7300,10 @@
         </is>
       </c>
       <c r="C91">
-        <v>56.8039</v>
+        <v>57.1398</v>
       </c>
       <c r="D91">
-        <v>10.2823</v>
+        <v>10.4295</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -7374,12 +7312,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>øster hurup</t>
+          <t>frederikshavn</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -7389,7 +7327,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7424,14 +7362,14 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MFD10292</t>
+          <t>MFD10289</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -7440,24 +7378,24 @@
         </is>
       </c>
       <c r="C92">
-        <v>55.5021</v>
+        <v>54.9501</v>
       </c>
       <c r="D92">
-        <v>10.6131</v>
+        <v>12.4757</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>odense fjord</t>
+          <t>møn</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -7467,7 +7405,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7497,19 +7435,19 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MFD10293</t>
+          <t>MFD10290</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -7518,10 +7456,10 @@
         </is>
       </c>
       <c r="C93">
-        <v>55.4698</v>
+        <v>56.8039</v>
       </c>
       <c r="D93">
-        <v>8.315300000000001</v>
+        <v>10.2823</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -7530,12 +7468,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>vadehavet</t>
+          <t>øster hurup</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -7545,7 +7483,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -7580,14 +7518,14 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MFD10294</t>
+          <t>MFD10292</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -7596,24 +7534,24 @@
         </is>
       </c>
       <c r="C94">
-        <v>56.1388</v>
+        <v>55.5021</v>
       </c>
       <c r="D94">
-        <v>10.2194</v>
+        <v>10.6131</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>aarhus</t>
+          <t>odense fjord</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -7623,7 +7561,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -7653,19 +7591,19 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MFD10295</t>
+          <t>MFD10293</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -7674,10 +7612,10 @@
         </is>
       </c>
       <c r="C95">
-        <v>56.7971</v>
+        <v>55.4698</v>
       </c>
       <c r="D95">
-        <v>10.286</v>
+        <v>8.315300000000001</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -7691,7 +7629,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>øster hurup</t>
+          <t>vadehavet</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -7743,7 +7681,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MFD10296</t>
+          <t>MFD10294</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7752,10 +7690,10 @@
         </is>
       </c>
       <c r="C96">
-        <v>55.7514</v>
+        <v>56.1388</v>
       </c>
       <c r="D96">
-        <v>12.5935</v>
+        <v>10.2194</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -7764,12 +7702,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>øresund</t>
+          <t>aarhus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -7779,7 +7717,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7814,14 +7752,14 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MFD10297</t>
+          <t>MFD10295</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7830,10 +7768,10 @@
         </is>
       </c>
       <c r="C97">
-        <v>55.5674</v>
+        <v>56.7971</v>
       </c>
       <c r="D97">
-        <v>12.2865</v>
+        <v>10.286</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -7842,12 +7780,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>køge bugt</t>
+          <t>øster hurup</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -7857,7 +7795,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7892,14 +7830,14 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MFD10298</t>
+          <t>MFD10296</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7908,10 +7846,10 @@
         </is>
       </c>
       <c r="C98">
-        <v>55.4722</v>
+        <v>55.7514</v>
       </c>
       <c r="D98">
-        <v>9.724299999999999</v>
+        <v>12.5935</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -7925,7 +7863,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>middelfart</t>
+          <t>øresund</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -7977,7 +7915,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MFD10299</t>
+          <t>MFD10297</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7986,24 +7924,24 @@
         </is>
       </c>
       <c r="C99">
-        <v>55.4862</v>
+        <v>55.5674</v>
       </c>
       <c r="D99">
-        <v>10.5984</v>
+        <v>12.2865</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>odense fjord</t>
+          <t>køge bugt</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -8043,19 +7981,19 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MFD10300</t>
+          <t>MFD10298</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -8064,24 +8002,24 @@
         </is>
       </c>
       <c r="C100">
-        <v>56.7062</v>
+        <v>55.4722</v>
       </c>
       <c r="D100">
-        <v>9.201599999999999</v>
+        <v>9.724299999999999</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>hvalpsund</t>
+          <t>middelfart</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -8091,7 +8029,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -8121,19 +8059,19 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MFD10301</t>
+          <t>MFD10299</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -8142,24 +8080,24 @@
         </is>
       </c>
       <c r="C101">
-        <v>54.9551</v>
+        <v>55.4862</v>
       </c>
       <c r="D101">
-        <v>12.4624</v>
+        <v>10.5984</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>møn</t>
+          <t>odense fjord</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -8199,19 +8137,19 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MFD10302</t>
+          <t>MFD10300</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -8220,24 +8158,24 @@
         </is>
       </c>
       <c r="C102">
-        <v>55.9967</v>
+        <v>56.7062</v>
       </c>
       <c r="D102">
-        <v>8.1173</v>
+        <v>9.201599999999999</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>hvidesande</t>
+          <t>hvalpsund</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -8277,19 +8215,19 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MFD10303</t>
+          <t>MFD10301</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -8298,10 +8236,10 @@
         </is>
       </c>
       <c r="C103">
-        <v>56.0422</v>
+        <v>54.9551</v>
       </c>
       <c r="D103">
-        <v>12.6193</v>
+        <v>12.4624</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -8310,12 +8248,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>helsingør</t>
+          <t>møn</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -8325,7 +8263,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -8360,14 +8298,14 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MFD10304</t>
+          <t>MFD10302</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -8376,24 +8314,24 @@
         </is>
       </c>
       <c r="C104">
-        <v>55.7003</v>
+        <v>55.9967</v>
       </c>
       <c r="D104">
-        <v>9.710900000000001</v>
+        <v>8.1173</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>vejle fjord</t>
+          <t>hvidesande</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -8403,7 +8341,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -8433,19 +8371,19 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MFD10305</t>
+          <t>MFD10303</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -8454,24 +8392,24 @@
         </is>
       </c>
       <c r="C105">
-        <v>55.6853</v>
+        <v>56.0422</v>
       </c>
       <c r="D105">
-        <v>12.0709</v>
+        <v>12.6193</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>roskilde fjord</t>
+          <t>helsingør</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -8511,19 +8449,19 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MFD10306</t>
+          <t>MFD10304</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -8532,24 +8470,24 @@
         </is>
       </c>
       <c r="C106">
-        <v>55.5693</v>
+        <v>55.7003</v>
       </c>
       <c r="D106">
-        <v>12.2888</v>
+        <v>9.710900000000001</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>køge bugt</t>
+          <t>vejle fjord</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -8589,19 +8527,19 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MFD10307</t>
+          <t>MFD10305</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -8610,24 +8548,24 @@
         </is>
       </c>
       <c r="C107">
-        <v>55.2521</v>
+        <v>55.6853</v>
       </c>
       <c r="D107">
-        <v>14.8263</v>
+        <v>12.0709</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>bornholm syd</t>
+          <t>roskilde fjord</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -8637,7 +8575,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -8667,19 +8605,19 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MFD10308</t>
+          <t>MFD10306</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -8688,10 +8626,10 @@
         </is>
       </c>
       <c r="C108">
-        <v>55.5648</v>
+        <v>55.5693</v>
       </c>
       <c r="D108">
-        <v>12.2823</v>
+        <v>12.2888</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -8700,7 +8638,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -8715,7 +8653,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -8750,14 +8688,14 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MFD10309</t>
+          <t>MFD10307</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -8766,10 +8704,10 @@
         </is>
       </c>
       <c r="C109">
-        <v>55.2571</v>
+        <v>55.2521</v>
       </c>
       <c r="D109">
-        <v>14.8194</v>
+        <v>14.8263</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -8778,7 +8716,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -8793,7 +8731,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -8828,14 +8766,14 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MFD10310</t>
+          <t>MFD10308</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -8844,24 +8782,24 @@
         </is>
       </c>
       <c r="C110">
-        <v>57.0103</v>
+        <v>55.5648</v>
       </c>
       <c r="D110">
-        <v>9.6347</v>
+        <v>12.2823</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>aalborg</t>
+          <t>køge bugt</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -8871,7 +8809,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8901,19 +8839,19 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MFD10311</t>
+          <t>MFD10309</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -8922,10 +8860,10 @@
         </is>
       </c>
       <c r="C111">
-        <v>55.9672</v>
+        <v>55.2571</v>
       </c>
       <c r="D111">
-        <v>11.8442</v>
+        <v>14.8194</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -8934,12 +8872,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>hundested</t>
+          <t>bornholm syd</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -8949,7 +8887,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8984,14 +8922,14 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MFD10312</t>
+          <t>MFD10310</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -9000,24 +8938,24 @@
         </is>
       </c>
       <c r="C112">
-        <v>57.1439</v>
+        <v>57.0103</v>
       </c>
       <c r="D112">
-        <v>10.4287</v>
+        <v>9.6347</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>hirtshals</t>
+          <t>aalborg</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -9027,7 +8965,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -9057,19 +8995,19 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MFD10313</t>
+          <t>MFD10311</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -9078,24 +9016,24 @@
         </is>
       </c>
       <c r="C113">
-        <v>55.6835</v>
+        <v>55.9672</v>
       </c>
       <c r="D113">
-        <v>12.0731</v>
+        <v>11.8442</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>roskilde fjord</t>
+          <t>hundested</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -9105,7 +9043,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -9135,19 +9073,19 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MFD10314</t>
+          <t>MFD10312</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -9156,24 +9094,24 @@
         </is>
       </c>
       <c r="C114">
-        <v>56.607</v>
+        <v>57.1439</v>
       </c>
       <c r="D114">
-        <v>10.2971</v>
+        <v>10.4287</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>randers fjord</t>
+          <t>hirtshals</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -9183,7 +9121,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -9213,19 +9151,19 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MFD10315</t>
+          <t>MFD10313</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -9234,24 +9172,24 @@
         </is>
       </c>
       <c r="C115">
-        <v>57.3214</v>
+        <v>55.6835</v>
       </c>
       <c r="D115">
-        <v>11.1282</v>
+        <v>12.0731</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>læsø</t>
+          <t>roskilde fjord</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -9261,7 +9199,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -9291,19 +9229,19 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MFD10316</t>
+          <t>MFD10314</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -9312,24 +9250,24 @@
         </is>
       </c>
       <c r="C116">
-        <v>54.8474</v>
+        <v>56.607</v>
       </c>
       <c r="D116">
-        <v>11.4796</v>
+        <v>10.2971</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>bandholm</t>
+          <t>randers fjord</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -9369,19 +9307,19 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MFD10317</t>
+          <t>MFD10315</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -9390,10 +9328,10 @@
         </is>
       </c>
       <c r="C117">
-        <v>56.1228</v>
+        <v>57.3214</v>
       </c>
       <c r="D117">
-        <v>10.2234</v>
+        <v>11.1282</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -9402,12 +9340,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>aarhus</t>
+          <t>læsø</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -9417,7 +9355,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -9452,14 +9390,14 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>MFD10318</t>
+          <t>MFD10316</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -9468,24 +9406,24 @@
         </is>
       </c>
       <c r="C118">
-        <v>55.703</v>
+        <v>54.8474</v>
       </c>
       <c r="D118">
-        <v>9.6995</v>
+        <v>11.4796</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>vejle fjord</t>
+          <t>bandholm</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -9495,7 +9433,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -9525,19 +9463,19 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MFD10320</t>
+          <t>MFD10317</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -9546,24 +9484,24 @@
         </is>
       </c>
       <c r="C119">
-        <v>57.055</v>
+        <v>56.1228</v>
       </c>
       <c r="D119">
-        <v>9.8705</v>
+        <v>10.2234</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>aalborg</t>
+          <t>aarhus</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -9573,7 +9511,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -9603,19 +9541,19 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MFD10321</t>
+          <t>MFD10318</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -9624,24 +9562,24 @@
         </is>
       </c>
       <c r="C120">
-        <v>54.919</v>
+        <v>55.703</v>
       </c>
       <c r="D120">
-        <v>11.4921</v>
+        <v>9.6995</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>bandholm</t>
+          <t>vejle fjord</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -9651,7 +9589,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -9681,19 +9619,19 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MFD10324</t>
+          <t>MFD10320</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -9702,24 +9640,24 @@
         </is>
       </c>
       <c r="C121">
-        <v>56.4455</v>
+        <v>57.055</v>
       </c>
       <c r="D121">
-        <v>10.9598</v>
+        <v>9.8705</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>djursland</t>
+          <t>aalborg</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -9759,19 +9697,19 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MFD10325</t>
+          <t>MFD10321</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -9780,10 +9718,10 @@
         </is>
       </c>
       <c r="C122">
-        <v>55.759</v>
+        <v>54.919</v>
       </c>
       <c r="D122">
-        <v>11.3175</v>
+        <v>11.4921</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -9797,7 +9735,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>bandholm</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -9849,7 +9787,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MFD10326</t>
+          <t>MFD10324</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -9858,24 +9796,24 @@
         </is>
       </c>
       <c r="C123">
-        <v>57.0595</v>
+        <v>56.4455</v>
       </c>
       <c r="D123">
-        <v>9.8713</v>
+        <v>10.9598</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>aalborg</t>
+          <t>djursland</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -9885,7 +9823,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -9915,19 +9853,19 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MFD10327</t>
+          <t>MFD10325</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -9936,10 +9874,10 @@
         </is>
       </c>
       <c r="C124">
-        <v>55.9898</v>
+        <v>55.759</v>
       </c>
       <c r="D124">
-        <v>8.1205</v>
+        <v>11.3175</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -9948,12 +9886,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>hvidesande</t>
+          <t>røsnæs</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -9963,7 +9901,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -9998,14 +9936,14 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MFD10328</t>
+          <t>MFD10326</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -10014,10 +9952,10 @@
         </is>
       </c>
       <c r="C125">
-        <v>56.6097</v>
+        <v>57.0595</v>
       </c>
       <c r="D125">
-        <v>10.3029</v>
+        <v>9.8713</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -10026,12 +9964,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>randers fjord</t>
+          <t>aalborg</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -10041,7 +9979,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -10076,14 +10014,14 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MFD10329</t>
+          <t>MFD10327</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -10092,24 +10030,24 @@
         </is>
       </c>
       <c r="C126">
-        <v>56.5539</v>
+        <v>55.9898</v>
       </c>
       <c r="D126">
-        <v>8.610099999999999</v>
+        <v>8.1205</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>venø</t>
+          <t>hvidesande</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -10119,7 +10057,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -10149,19 +10087,19 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MFD10330</t>
+          <t>MFD10328</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -10170,10 +10108,10 @@
         </is>
       </c>
       <c r="C127">
-        <v>56.5503</v>
+        <v>56.6097</v>
       </c>
       <c r="D127">
-        <v>8.6145</v>
+        <v>10.3029</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -10187,7 +10125,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>venø</t>
+          <t>randers fjord</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -10239,7 +10177,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MFD10331</t>
+          <t>MFD10329</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -10248,24 +10186,24 @@
         </is>
       </c>
       <c r="C128">
-        <v>55.0648</v>
+        <v>56.5539</v>
       </c>
       <c r="D128">
-        <v>10.2187</v>
+        <v>8.610099999999999</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>dyreborg sydfyn</t>
+          <t>venø</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -10275,7 +10213,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -10305,19 +10243,19 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MFD10332</t>
+          <t>MFD10330</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -10326,10 +10264,10 @@
         </is>
       </c>
       <c r="C129">
-        <v>55.6798</v>
+        <v>56.5503</v>
       </c>
       <c r="D129">
-        <v>12.0689</v>
+        <v>8.6145</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -10343,7 +10281,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>roskilde fjord</t>
+          <t>venø</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -10395,7 +10333,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MFD10333</t>
+          <t>MFD10331</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -10404,10 +10342,10 @@
         </is>
       </c>
       <c r="C130">
-        <v>55.9689</v>
+        <v>55.0648</v>
       </c>
       <c r="D130">
-        <v>11.8461</v>
+        <v>10.2187</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -10421,7 +10359,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>hundested</t>
+          <t>dyreborg sydfyn</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -10473,7 +10411,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MFD10334</t>
+          <t>MFD10332</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -10482,24 +10420,24 @@
         </is>
       </c>
       <c r="C131">
-        <v>55.3475</v>
+        <v>55.6798</v>
       </c>
       <c r="D131">
-        <v>11.1011</v>
+        <v>12.0689</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>halsskov</t>
+          <t>roskilde fjord</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -10509,7 +10447,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -10539,19 +10477,19 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MFD10335</t>
+          <t>MFD10333</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -10560,10 +10498,10 @@
         </is>
       </c>
       <c r="C132">
-        <v>55.3465</v>
+        <v>55.9689</v>
       </c>
       <c r="D132">
-        <v>11.101</v>
+        <v>11.8461</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -10572,12 +10510,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>halsskov</t>
+          <t>hundested</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -10587,7 +10525,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -10622,14 +10560,14 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MFD10336</t>
+          <t>MFD10334</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -10638,10 +10576,10 @@
         </is>
       </c>
       <c r="C133">
-        <v>55.7588</v>
+        <v>55.3475</v>
       </c>
       <c r="D133">
-        <v>11.3493</v>
+        <v>11.1011</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -10655,7 +10593,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>halsskov</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -10707,7 +10645,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MFD10337</t>
+          <t>MFD10335</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -10716,10 +10654,10 @@
         </is>
       </c>
       <c r="C134">
-        <v>54.885</v>
+        <v>55.3465</v>
       </c>
       <c r="D134">
-        <v>11.0135</v>
+        <v>11.101</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -10728,12 +10666,12 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>spodsbjerg lolland</t>
+          <t>halsskov</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -10743,7 +10681,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10778,14 +10716,14 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MFD10338</t>
+          <t>MFD10336</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -10794,10 +10732,10 @@
         </is>
       </c>
       <c r="C135">
-        <v>55.328</v>
+        <v>55.7588</v>
       </c>
       <c r="D135">
-        <v>11.1284</v>
+        <v>11.3493</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -10806,12 +10744,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>halsskov</t>
+          <t>røsnæs</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -10821,7 +10759,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10856,14 +10794,14 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MFD10340</t>
+          <t>MFD10337</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -10872,10 +10810,10 @@
         </is>
       </c>
       <c r="C136">
-        <v>55.7546</v>
+        <v>54.885</v>
       </c>
       <c r="D136">
-        <v>11.3223</v>
+        <v>11.0135</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -10884,12 +10822,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>spodsbjerg lolland</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -10899,7 +10837,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10934,14 +10872,14 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MFD10342</t>
+          <t>MFD10338</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -10950,10 +10888,10 @@
         </is>
       </c>
       <c r="C137">
-        <v>55.9513</v>
+        <v>55.328</v>
       </c>
       <c r="D137">
-        <v>11.8471</v>
+        <v>11.1284</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -10962,12 +10900,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>hundested</t>
+          <t>halsskov</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -10977,7 +10915,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -11012,14 +10950,14 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MFD10343</t>
+          <t>MFD10340</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -11028,10 +10966,10 @@
         </is>
       </c>
       <c r="C138">
-        <v>55.1182</v>
+        <v>55.7546</v>
       </c>
       <c r="D138">
-        <v>9.488200000000001</v>
+        <v>11.3223</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -11040,12 +10978,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>genner bugt</t>
+          <t>røsnæs</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -11055,7 +10993,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -11090,14 +11028,14 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MFD10344</t>
+          <t>MFD10342</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -11106,10 +11044,10 @@
         </is>
       </c>
       <c r="C139">
-        <v>56.4481</v>
+        <v>55.9513</v>
       </c>
       <c r="D139">
-        <v>10.955</v>
+        <v>11.8471</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -11118,12 +11056,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>djursland</t>
+          <t>hundested</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -11133,7 +11071,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -11168,14 +11106,14 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MFD10345</t>
+          <t>MFD10343</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -11184,10 +11122,10 @@
         </is>
       </c>
       <c r="C140">
-        <v>55.7492</v>
+        <v>55.1182</v>
       </c>
       <c r="D140">
-        <v>12.5947</v>
+        <v>9.488200000000001</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -11196,12 +11134,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>øresund</t>
+          <t>genner bugt</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -11211,7 +11149,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -11246,14 +11184,14 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MFD10346</t>
+          <t>MFD10344</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -11262,10 +11200,10 @@
         </is>
       </c>
       <c r="C141">
-        <v>55.1146</v>
+        <v>56.4481</v>
       </c>
       <c r="D141">
-        <v>9.502700000000001</v>
+        <v>10.955</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -11274,12 +11212,12 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>genner bugt</t>
+          <t>djursland</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -11289,7 +11227,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -11324,14 +11262,14 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MFD10347</t>
+          <t>MFD10345</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -11340,10 +11278,10 @@
         </is>
       </c>
       <c r="C142">
-        <v>54.8791</v>
+        <v>55.7492</v>
       </c>
       <c r="D142">
-        <v>11.0152</v>
+        <v>12.5947</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -11357,7 +11295,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>spodsbjerg lolland</t>
+          <t>øresund</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -11409,7 +11347,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MFD10348</t>
+          <t>MFD10346</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -11418,10 +11356,10 @@
         </is>
       </c>
       <c r="C143">
-        <v>56.0411</v>
+        <v>55.1146</v>
       </c>
       <c r="D143">
-        <v>12.6181</v>
+        <v>9.502700000000001</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -11435,7 +11373,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>helsingør</t>
+          <t>genner bugt</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -11487,7 +11425,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>MFD10349</t>
+          <t>MFD10347</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -11496,24 +11434,24 @@
         </is>
       </c>
       <c r="C144">
-        <v>56.7128</v>
+        <v>54.8791</v>
       </c>
       <c r="D144">
-        <v>9.209099999999999</v>
+        <v>11.0152</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>hvalpsund</t>
+          <t>spodsbjerg lolland</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -11523,7 +11461,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -11553,19 +11491,19 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MFD10350</t>
+          <t>MFD10348</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -11574,10 +11512,10 @@
         </is>
       </c>
       <c r="C145">
-        <v>56.0445</v>
+        <v>56.0411</v>
       </c>
       <c r="D145">
-        <v>12.6091</v>
+        <v>12.6181</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -11586,7 +11524,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -11601,7 +11539,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -11636,14 +11574,14 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MFD10351</t>
+          <t>MFD10349</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -11652,10 +11590,10 @@
         </is>
       </c>
       <c r="C146">
-        <v>56.7105</v>
+        <v>56.7128</v>
       </c>
       <c r="D146">
-        <v>9.207000000000001</v>
+        <v>9.209099999999999</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -11664,7 +11602,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -11679,7 +11617,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -11714,14 +11652,14 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MFD10352</t>
+          <t>MFD10350</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -11730,10 +11668,10 @@
         </is>
       </c>
       <c r="C147">
-        <v>55.0224</v>
+        <v>56.0445</v>
       </c>
       <c r="D147">
-        <v>14.9037</v>
+        <v>12.6091</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -11742,12 +11680,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>bornholm nord</t>
+          <t>helsingør</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -11757,7 +11695,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -11792,14 +11730,14 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MFD10353</t>
+          <t>MFD10351</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -11808,24 +11746,24 @@
         </is>
       </c>
       <c r="C148">
-        <v>57.3229</v>
+        <v>56.7105</v>
       </c>
       <c r="D148">
-        <v>11.1329</v>
+        <v>9.207000000000001</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>læsø</t>
+          <t>hvalpsund</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -11835,7 +11773,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -11865,19 +11803,19 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MFD10354</t>
+          <t>MFD10352</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -11886,10 +11824,10 @@
         </is>
       </c>
       <c r="C149">
-        <v>55.0416</v>
+        <v>55.0224</v>
       </c>
       <c r="D149">
-        <v>10.2548</v>
+        <v>14.9037</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -11898,12 +11836,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>dyreborg sydfyn</t>
+          <t>bornholm nord</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -11913,7 +11851,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -11948,14 +11886,14 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MFD10355</t>
+          <t>MFD10353</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -11964,10 +11902,10 @@
         </is>
       </c>
       <c r="C150">
-        <v>57.1265</v>
+        <v>57.3229</v>
       </c>
       <c r="D150">
-        <v>8.620799999999999</v>
+        <v>11.1329</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -11976,12 +11914,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>hanstholm</t>
+          <t>læsø</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -11991,7 +11929,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -12026,14 +11964,14 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MFD10356</t>
+          <t>MFD10354</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -12042,24 +11980,24 @@
         </is>
       </c>
       <c r="C151">
-        <v>55.133</v>
+        <v>55.0416</v>
       </c>
       <c r="D151">
-        <v>12.0876</v>
+        <v>10.2548</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>præstø fjord</t>
+          <t>dyreborg sydfyn</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -12099,19 +12037,19 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MFD10358</t>
+          <t>MFD10355</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -12120,10 +12058,10 @@
         </is>
       </c>
       <c r="C152">
-        <v>54.8378</v>
+        <v>57.1265</v>
       </c>
       <c r="D152">
-        <v>11.4936</v>
+        <v>8.620799999999999</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -12137,7 +12075,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>bandholm</t>
+          <t>hanstholm</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -12189,7 +12127,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MFD10359</t>
+          <t>MFD10356</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -12198,24 +12136,24 @@
         </is>
       </c>
       <c r="C153">
-        <v>55.0205</v>
+        <v>55.133</v>
       </c>
       <c r="D153">
-        <v>14.9119</v>
+        <v>12.0876</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>bornholm nord</t>
+          <t>præstø fjord</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -12225,7 +12163,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -12255,19 +12193,19 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MFD10360</t>
+          <t>MFD10358</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -12276,10 +12214,10 @@
         </is>
       </c>
       <c r="C154">
-        <v>55.759</v>
+        <v>54.8378</v>
       </c>
       <c r="D154">
-        <v>12.6027</v>
+        <v>11.4936</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -12293,7 +12231,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>øresund</t>
+          <t>bandholm</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -12345,7 +12283,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MFD10361</t>
+          <t>MFD10359</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -12354,10 +12292,10 @@
         </is>
       </c>
       <c r="C155">
-        <v>57.1264</v>
+        <v>55.0205</v>
       </c>
       <c r="D155">
-        <v>8.6151</v>
+        <v>14.9119</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -12371,7 +12309,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>hanstholm</t>
+          <t>bornholm nord</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -12423,7 +12361,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MFD10362</t>
+          <t>MFD10360</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -12432,10 +12370,10 @@
         </is>
       </c>
       <c r="C156">
-        <v>55.4464</v>
+        <v>55.759</v>
       </c>
       <c r="D156">
-        <v>8.406599999999999</v>
+        <v>12.6027</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -12449,7 +12387,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>vadehavet</t>
+          <t>øresund</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -12501,76 +12439,232 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
+          <t>MFD10361</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C157">
+        <v>57.1264</v>
+      </c>
+      <c r="D157">
+        <v>8.6151</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>coast</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>hanstholm</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>2020-10-22</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>sandy seabed (sb)</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>P11_2</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>2020-10-22</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>Open sea and tidal areas</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>Sandy coastal seabed</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>MFD10362</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C158">
+        <v>55.4464</v>
+      </c>
+      <c r="D158">
+        <v>8.406599999999999</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>coast</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>vadehavet</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>2020-10-22</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>rocky seabed (rb)</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>P11_2</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>2020-10-22</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>Open sea and tidal areas</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>Rocky coastal seabed</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
           <t>MFD10363</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>sediment</t>
-        </is>
-      </c>
-      <c r="C157">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>sediment</t>
+        </is>
+      </c>
+      <c r="C159">
         <v>57.3387</v>
       </c>
-      <c r="D157">
+      <c r="D159">
         <v>10.526</v>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>coast</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>1102</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>frederikshavn</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-10-22</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>2020-10-22</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
         <is>
           <t>rocky seabed (rb)</t>
         </is>
       </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>P11_2</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>Sediment</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>2020-10-22</t>
-        </is>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>Saltwater</t>
-        </is>
-      </c>
-      <c r="O157" t="inlineStr">
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>P11_2</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>2020-10-22</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
         <is>
           <t>Open sea and tidal areas</t>
         </is>
       </c>
-      <c r="P157" t="inlineStr">
+      <c r="P159" t="inlineStr">
         <is>
           <t>Rocky coastal seabed</t>
         </is>

--- a/analysis/metadata/P11_2/P11_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P11_2/P11_2_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P159"/>
+  <dimension ref="A1:P157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3141,7 +3141,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MFD10233</t>
+          <t>MFD10234</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3149,19 +3149,35 @@
           <t>sediment</t>
         </is>
       </c>
+      <c r="C37">
+        <v>54.919</v>
+      </c>
+      <c r="D37">
+        <v>11.4921</v>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>coast</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1103</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>bandholm</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>c18eb1</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3181,14 +3197,29 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Open sea and tidal areas</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MFD10233</t>
+          <t>MFD10235</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3196,19 +3227,35 @@
           <t>sediment</t>
         </is>
       </c>
+      <c r="C38">
+        <v>55.6798</v>
+      </c>
+      <c r="D38">
+        <v>12.0689</v>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1302</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>roskilde fjord</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>c18eb1</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3228,14 +3275,29 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Fjords</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MFD10234</t>
+          <t>MFD10236</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3244,10 +3306,10 @@
         </is>
       </c>
       <c r="C39">
-        <v>54.919</v>
+        <v>57.5959</v>
       </c>
       <c r="D39">
-        <v>11.4921</v>
+        <v>9.9574</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3256,12 +3318,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>bandholm</t>
+          <t>hirtshals</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3271,7 +3333,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3306,14 +3368,14 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MFD10235</t>
+          <t>MFD10237</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3322,24 +3384,24 @@
         </is>
       </c>
       <c r="C40">
-        <v>55.6798</v>
+        <v>55.4824</v>
       </c>
       <c r="D40">
-        <v>12.0689</v>
+        <v>9.7151</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>roskilde fjord</t>
+          <t>middelfart</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3349,7 +3411,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3379,19 +3441,19 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MFD10236</t>
+          <t>MFD10238</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3400,24 +3462,24 @@
         </is>
       </c>
       <c r="C41">
-        <v>57.5959</v>
+        <v>56.7062</v>
       </c>
       <c r="D41">
-        <v>9.9574</v>
+        <v>9.201599999999999</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>hirtshals</t>
+          <t>hvalpsund</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3457,19 +3519,19 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MFD10237</t>
+          <t>MFD10239</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3478,10 +3540,10 @@
         </is>
       </c>
       <c r="C42">
-        <v>55.4824</v>
+        <v>55.7514</v>
       </c>
       <c r="D42">
-        <v>9.7151</v>
+        <v>12.5935</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3490,12 +3552,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>middelfart</t>
+          <t>øresund</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3505,7 +3567,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3540,14 +3602,14 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MFD10238</t>
+          <t>MFD10240</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3556,24 +3618,24 @@
         </is>
       </c>
       <c r="C43">
-        <v>56.7062</v>
+        <v>54.9551</v>
       </c>
       <c r="D43">
-        <v>9.201599999999999</v>
+        <v>12.4624</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>hvalpsund</t>
+          <t>møn</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3613,19 +3675,19 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MFD10239</t>
+          <t>MFD10241</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3634,10 +3696,10 @@
         </is>
       </c>
       <c r="C44">
-        <v>55.7514</v>
+        <v>57.3214</v>
       </c>
       <c r="D44">
-        <v>12.5935</v>
+        <v>11.1282</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3646,12 +3708,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>øresund</t>
+          <t>læsø</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3661,7 +3723,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3696,14 +3758,14 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MFD10240</t>
+          <t>MFD10242</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3712,24 +3774,24 @@
         </is>
       </c>
       <c r="C45">
-        <v>54.9551</v>
+        <v>55.703</v>
       </c>
       <c r="D45">
-        <v>12.4624</v>
+        <v>9.6995</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>møn</t>
+          <t>vejle fjord</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3769,19 +3831,19 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MFD10241</t>
+          <t>MFD10243</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3790,10 +3852,10 @@
         </is>
       </c>
       <c r="C46">
-        <v>57.3214</v>
+        <v>57.3387</v>
       </c>
       <c r="D46">
-        <v>11.1282</v>
+        <v>10.526</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3807,7 +3869,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>læsø</t>
+          <t>frederikshavn</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3859,7 +3921,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MFD10242</t>
+          <t>MFD10244</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3868,24 +3930,24 @@
         </is>
       </c>
       <c r="C47">
-        <v>55.703</v>
+        <v>55.9672</v>
       </c>
       <c r="D47">
-        <v>9.6995</v>
+        <v>11.8442</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>vejle fjord</t>
+          <t>hundested</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3925,19 +3987,19 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MFD10243</t>
+          <t>MFD10245</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3946,10 +4008,10 @@
         </is>
       </c>
       <c r="C48">
-        <v>57.3387</v>
+        <v>55.7546</v>
       </c>
       <c r="D48">
-        <v>10.526</v>
+        <v>11.3223</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3963,7 +4025,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>frederikshavn</t>
+          <t>røsnæs</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4015,7 +4077,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MFD10244</t>
+          <t>MFD10246</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4024,10 +4086,10 @@
         </is>
       </c>
       <c r="C49">
-        <v>55.9672</v>
+        <v>54.9501</v>
       </c>
       <c r="D49">
-        <v>11.8442</v>
+        <v>12.4757</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -4036,12 +4098,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>hundested</t>
+          <t>møn</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4051,7 +4113,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4086,14 +4148,14 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MFD10245</t>
+          <t>MFD10247</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4102,10 +4164,10 @@
         </is>
       </c>
       <c r="C50">
-        <v>55.7546</v>
+        <v>56.8039</v>
       </c>
       <c r="D50">
-        <v>11.3223</v>
+        <v>10.2823</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -4119,7 +4181,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>øster hurup</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4171,7 +4233,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MFD10246</t>
+          <t>MFD10248</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4180,10 +4242,10 @@
         </is>
       </c>
       <c r="C51">
-        <v>54.9501</v>
+        <v>55.9689</v>
       </c>
       <c r="D51">
-        <v>12.4757</v>
+        <v>11.8461</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -4197,7 +4259,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>møn</t>
+          <t>hundested</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4249,7 +4311,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MFD10247</t>
+          <t>MFD10249</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4258,10 +4320,10 @@
         </is>
       </c>
       <c r="C52">
-        <v>56.8039</v>
+        <v>55.9513</v>
       </c>
       <c r="D52">
-        <v>10.2823</v>
+        <v>11.8471</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -4270,12 +4332,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>øster hurup</t>
+          <t>hundested</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4285,7 +4347,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4320,14 +4382,14 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MFD10248</t>
+          <t>MFD10250</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4336,10 +4398,10 @@
         </is>
       </c>
       <c r="C53">
-        <v>55.9689</v>
+        <v>55.0224</v>
       </c>
       <c r="D53">
-        <v>11.8461</v>
+        <v>14.9037</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -4348,12 +4410,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>hundested</t>
+          <t>bornholm nord</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4363,7 +4425,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4398,14 +4460,14 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MFD10249</t>
+          <t>MFD10251</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4414,10 +4476,10 @@
         </is>
       </c>
       <c r="C54">
-        <v>55.9513</v>
+        <v>57.3191</v>
       </c>
       <c r="D54">
-        <v>11.8471</v>
+        <v>10.5321</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -4426,12 +4488,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>hundested</t>
+          <t>frederikshavn</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4441,7 +4503,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4476,14 +4538,14 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MFD10250</t>
+          <t>MFD10252</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4492,10 +4554,10 @@
         </is>
       </c>
       <c r="C55">
-        <v>55.0224</v>
+        <v>57.5921</v>
       </c>
       <c r="D55">
-        <v>14.9037</v>
+        <v>9.9472</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -4504,12 +4566,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>bornholm nord</t>
+          <t>hirtshals</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4519,7 +4581,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4554,14 +4616,14 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MFD10251</t>
+          <t>MFD10253</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4570,10 +4632,10 @@
         </is>
       </c>
       <c r="C56">
-        <v>57.3191</v>
+        <v>55.0401</v>
       </c>
       <c r="D56">
-        <v>10.5321</v>
+        <v>10.2543</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -4582,12 +4644,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>frederikshavn</t>
+          <t>dyreborg sydfyn</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4597,7 +4659,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4632,14 +4694,14 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MFD10252</t>
+          <t>MFD10254</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4648,24 +4710,24 @@
         </is>
       </c>
       <c r="C57">
-        <v>57.5921</v>
+        <v>55.5021</v>
       </c>
       <c r="D57">
-        <v>9.9472</v>
+        <v>10.6131</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>hirtshals</t>
+          <t>odense fjord</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4675,7 +4737,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4705,19 +4767,19 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MFD10253</t>
+          <t>MFD10255</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4726,10 +4788,10 @@
         </is>
       </c>
       <c r="C58">
-        <v>55.0401</v>
+        <v>55.4722</v>
       </c>
       <c r="D58">
-        <v>10.2543</v>
+        <v>9.724299999999999</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -4738,12 +4800,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>dyreborg sydfyn</t>
+          <t>middelfart</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4753,7 +4815,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4788,14 +4850,14 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MFD10254</t>
+          <t>MFD10256</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4804,24 +4866,24 @@
         </is>
       </c>
       <c r="C59">
-        <v>55.5021</v>
+        <v>55.2521</v>
       </c>
       <c r="D59">
-        <v>10.6131</v>
+        <v>14.8263</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>odense fjord</t>
+          <t>bornholm syd</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4831,7 +4893,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4861,19 +4923,19 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MFD10255</t>
+          <t>MFD10257</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4882,10 +4944,10 @@
         </is>
       </c>
       <c r="C60">
-        <v>55.4722</v>
+        <v>54.885</v>
       </c>
       <c r="D60">
-        <v>9.724299999999999</v>
+        <v>11.0135</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -4899,7 +4961,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>middelfart</t>
+          <t>spodsbjerg lolland</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4951,7 +5013,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MFD10256</t>
+          <t>MFD10258</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4960,10 +5022,10 @@
         </is>
       </c>
       <c r="C61">
-        <v>55.2521</v>
+        <v>56.0445</v>
       </c>
       <c r="D61">
-        <v>14.8263</v>
+        <v>12.6091</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -4972,12 +5034,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>bornholm syd</t>
+          <t>helsingør</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4987,7 +5049,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -5022,14 +5084,14 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MFD10257</t>
+          <t>MFD10260</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5038,24 +5100,24 @@
         </is>
       </c>
       <c r="C62">
-        <v>54.885</v>
+        <v>57.055</v>
       </c>
       <c r="D62">
-        <v>11.0135</v>
+        <v>9.8705</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>spodsbjerg lolland</t>
+          <t>aalborg</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -5065,7 +5127,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -5095,19 +5157,19 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MFD10258</t>
+          <t>MFD10261</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5116,10 +5178,10 @@
         </is>
       </c>
       <c r="C63">
-        <v>56.0445</v>
+        <v>55.1182</v>
       </c>
       <c r="D63">
-        <v>12.6091</v>
+        <v>9.488200000000001</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -5133,7 +5195,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>helsingør</t>
+          <t>genner bugt</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -5185,7 +5247,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MFD10260</t>
+          <t>MFD10262</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5194,24 +5256,24 @@
         </is>
       </c>
       <c r="C64">
-        <v>57.055</v>
+        <v>55.759</v>
       </c>
       <c r="D64">
-        <v>9.8705</v>
+        <v>11.3175</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>aalborg</t>
+          <t>røsnæs</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5221,7 +5283,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -5251,19 +5313,19 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MFD10261</t>
+          <t>MFD10263</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5272,24 +5334,24 @@
         </is>
       </c>
       <c r="C65">
-        <v>55.1182</v>
+        <v>56.6097</v>
       </c>
       <c r="D65">
-        <v>9.488200000000001</v>
+        <v>10.3029</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>genner bugt</t>
+          <t>randers fjord</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5299,7 +5361,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -5329,19 +5391,19 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MFD10262</t>
+          <t>MFD10264</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5350,24 +5412,24 @@
         </is>
       </c>
       <c r="C66">
-        <v>55.759</v>
+        <v>56.7105</v>
       </c>
       <c r="D66">
-        <v>11.3175</v>
+        <v>9.207000000000001</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>hvalpsund</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5407,19 +5469,19 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MFD10263</t>
+          <t>MFD10265</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5428,24 +5490,24 @@
         </is>
       </c>
       <c r="C67">
-        <v>56.6097</v>
+        <v>55.759</v>
       </c>
       <c r="D67">
-        <v>10.3029</v>
+        <v>12.6027</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>randers fjord</t>
+          <t>øresund</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5485,19 +5547,19 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MFD10264</t>
+          <t>MFD10266</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5506,24 +5568,24 @@
         </is>
       </c>
       <c r="C68">
-        <v>56.7105</v>
+        <v>56.1388</v>
       </c>
       <c r="D68">
-        <v>9.207000000000001</v>
+        <v>10.2194</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>hvalpsund</t>
+          <t>aarhus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5533,7 +5595,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -5563,19 +5625,19 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MFD10265</t>
+          <t>MFD10267</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5584,10 +5646,10 @@
         </is>
       </c>
       <c r="C69">
-        <v>55.759</v>
+        <v>55.4464</v>
       </c>
       <c r="D69">
-        <v>12.6027</v>
+        <v>8.406599999999999</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -5601,7 +5663,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>øresund</t>
+          <t>vadehavet</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5653,7 +5715,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MFD10266</t>
+          <t>MFD10268</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5662,10 +5724,10 @@
         </is>
       </c>
       <c r="C70">
-        <v>56.1388</v>
+        <v>55.5674</v>
       </c>
       <c r="D70">
-        <v>10.2194</v>
+        <v>12.2865</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -5679,7 +5741,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>aarhus</t>
+          <t>køge bugt</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5731,7 +5793,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MFD10267</t>
+          <t>MFD10269</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5740,10 +5802,10 @@
         </is>
       </c>
       <c r="C71">
-        <v>55.4464</v>
+        <v>55.328</v>
       </c>
       <c r="D71">
-        <v>8.406599999999999</v>
+        <v>11.1284</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -5757,7 +5819,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>vadehavet</t>
+          <t>halsskov</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5809,7 +5871,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MFD10268</t>
+          <t>MFD10270</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5818,24 +5880,24 @@
         </is>
       </c>
       <c r="C72">
-        <v>55.5674</v>
+        <v>56.5539</v>
       </c>
       <c r="D72">
-        <v>12.2865</v>
+        <v>8.610099999999999</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>køge bugt</t>
+          <t>venø</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5845,7 +5907,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5875,19 +5937,19 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MFD10269</t>
+          <t>MFD10271</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5896,24 +5958,24 @@
         </is>
       </c>
       <c r="C73">
-        <v>55.328</v>
+        <v>55.1701</v>
       </c>
       <c r="D73">
-        <v>11.1284</v>
+        <v>12.0908</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>halsskov</t>
+          <t>præstø fjord</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5953,19 +6015,19 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MFD10270</t>
+          <t>MFD10272</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5974,24 +6036,24 @@
         </is>
       </c>
       <c r="C74">
-        <v>56.5539</v>
+        <v>57.1265</v>
       </c>
       <c r="D74">
-        <v>8.610099999999999</v>
+        <v>8.620799999999999</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>venø</t>
+          <t>hanstholm</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -6001,7 +6063,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -6031,19 +6093,19 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MFD10271</t>
+          <t>MFD10273</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6052,24 +6114,24 @@
         </is>
       </c>
       <c r="C75">
-        <v>55.1701</v>
+        <v>55.0648</v>
       </c>
       <c r="D75">
-        <v>12.0908</v>
+        <v>10.2187</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>præstø fjord</t>
+          <t>dyreborg sydfyn</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6079,7 +6141,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -6109,19 +6171,19 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MFD10272</t>
+          <t>MFD10274</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6130,24 +6192,24 @@
         </is>
       </c>
       <c r="C76">
-        <v>57.1265</v>
+        <v>55.4862</v>
       </c>
       <c r="D76">
-        <v>8.620799999999999</v>
+        <v>10.5984</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>hanstholm</t>
+          <t>odense fjord</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -6187,19 +6249,19 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MFD10273</t>
+          <t>MFD10275</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6208,10 +6270,10 @@
         </is>
       </c>
       <c r="C77">
-        <v>55.0648</v>
+        <v>55.7588</v>
       </c>
       <c r="D77">
-        <v>10.2187</v>
+        <v>11.3493</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -6225,7 +6287,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>dyreborg sydfyn</t>
+          <t>røsnæs</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6277,7 +6339,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MFD10274</t>
+          <t>MFD10276</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6286,24 +6348,24 @@
         </is>
       </c>
       <c r="C78">
-        <v>55.4862</v>
+        <v>55.3475</v>
       </c>
       <c r="D78">
-        <v>10.5984</v>
+        <v>11.1011</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>odense fjord</t>
+          <t>halsskov</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -6313,7 +6375,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6343,19 +6405,19 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MFD10275</t>
+          <t>MFD10278</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6364,24 +6426,24 @@
         </is>
       </c>
       <c r="C79">
-        <v>55.7588</v>
+        <v>55.7003</v>
       </c>
       <c r="D79">
-        <v>11.3493</v>
+        <v>9.710900000000001</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>vejle fjord</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -6421,19 +6483,19 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MFD10276</t>
+          <t>MFD10279</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6442,10 +6504,10 @@
         </is>
       </c>
       <c r="C80">
-        <v>55.3475</v>
+        <v>55.5693</v>
       </c>
       <c r="D80">
-        <v>11.1011</v>
+        <v>12.2888</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -6459,7 +6521,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>halsskov</t>
+          <t>køge bugt</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -6511,7 +6573,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MFD10278</t>
+          <t>MFD10280</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6520,10 +6582,10 @@
         </is>
       </c>
       <c r="C81">
-        <v>55.7003</v>
+        <v>55.4941</v>
       </c>
       <c r="D81">
-        <v>9.710900000000001</v>
+        <v>10.6182</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -6537,12 +6599,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>vejle fjord</t>
+          <t>odense fjord</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6567,7 +6629,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6589,7 +6651,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MFD10279</t>
+          <t>MFD10281</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6598,10 +6660,10 @@
         </is>
       </c>
       <c r="C82">
-        <v>55.5693</v>
+        <v>55.4824</v>
       </c>
       <c r="D82">
-        <v>12.2888</v>
+        <v>9.7151</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -6610,22 +6672,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>køge bugt</t>
+          <t>middelfart</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6645,7 +6707,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6660,14 +6722,14 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MFD10280</t>
+          <t>MFD10282</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6676,24 +6738,24 @@
         </is>
       </c>
       <c r="C83">
-        <v>55.4941</v>
+        <v>55.0401</v>
       </c>
       <c r="D83">
-        <v>10.6182</v>
+        <v>10.2543</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>odense fjord</t>
+          <t>dyreborg sydfyn</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6703,7 +6765,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -6733,19 +6795,19 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MFD10281</t>
+          <t>MFD10283</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6754,24 +6816,24 @@
         </is>
       </c>
       <c r="C84">
-        <v>55.4824</v>
+        <v>55.1359</v>
       </c>
       <c r="D84">
-        <v>9.7151</v>
+        <v>12.1073</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>middelfart</t>
+          <t>præstø fjord</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -6781,7 +6843,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6811,19 +6873,19 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MFD10282</t>
+          <t>MFD10284</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6832,24 +6894,24 @@
         </is>
       </c>
       <c r="C85">
-        <v>55.0401</v>
+        <v>55.1701</v>
       </c>
       <c r="D85">
-        <v>10.2543</v>
+        <v>12.0908</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>dyreborg sydfyn</t>
+          <t>præstø fjord</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -6889,19 +6951,19 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MFD10283</t>
+          <t>MFD10285</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6910,24 +6972,24 @@
         </is>
       </c>
       <c r="C86">
-        <v>55.1359</v>
+        <v>55.4898</v>
       </c>
       <c r="D86">
-        <v>12.1073</v>
+        <v>9.728</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>præstø fjord</t>
+          <t>middelfart</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -6937,7 +6999,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6967,19 +7029,19 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MFD10284</t>
+          <t>MFD10286</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6988,24 +7050,24 @@
         </is>
       </c>
       <c r="C87">
-        <v>55.1701</v>
+        <v>57.5921</v>
       </c>
       <c r="D87">
-        <v>12.0908</v>
+        <v>9.9472</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>præstø fjord</t>
+          <t>hirtshals</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -7015,7 +7077,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -7045,19 +7107,19 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MFD10285</t>
+          <t>MFD10287</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -7066,10 +7128,10 @@
         </is>
       </c>
       <c r="C88">
-        <v>55.4898</v>
+        <v>54.8803</v>
       </c>
       <c r="D88">
-        <v>9.728</v>
+        <v>11.0176</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -7083,7 +7145,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>middelfart</t>
+          <t>spodsbjerg lolland</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -7135,7 +7197,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MFD10286</t>
+          <t>MFD10288</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -7144,10 +7206,10 @@
         </is>
       </c>
       <c r="C89">
-        <v>57.5921</v>
+        <v>57.1398</v>
       </c>
       <c r="D89">
-        <v>9.9472</v>
+        <v>10.4295</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -7161,7 +7223,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>hirtshals</t>
+          <t>frederikshavn</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -7213,7 +7275,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MFD10287</t>
+          <t>MFD10289</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -7222,10 +7284,10 @@
         </is>
       </c>
       <c r="C90">
-        <v>54.8803</v>
+        <v>54.9501</v>
       </c>
       <c r="D90">
-        <v>11.0176</v>
+        <v>12.4757</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -7234,12 +7296,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>spodsbjerg lolland</t>
+          <t>møn</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -7249,7 +7311,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -7284,14 +7346,14 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MFD10288</t>
+          <t>MFD10290</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -7300,10 +7362,10 @@
         </is>
       </c>
       <c r="C91">
-        <v>57.1398</v>
+        <v>56.8039</v>
       </c>
       <c r="D91">
-        <v>10.4295</v>
+        <v>10.2823</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -7312,12 +7374,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>frederikshavn</t>
+          <t>øster hurup</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -7327,7 +7389,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7362,14 +7424,14 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MFD10289</t>
+          <t>MFD10292</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -7378,24 +7440,24 @@
         </is>
       </c>
       <c r="C92">
-        <v>54.9501</v>
+        <v>55.5021</v>
       </c>
       <c r="D92">
-        <v>12.4757</v>
+        <v>10.6131</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>møn</t>
+          <t>odense fjord</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -7405,7 +7467,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7435,19 +7497,19 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MFD10290</t>
+          <t>MFD10293</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -7456,10 +7518,10 @@
         </is>
       </c>
       <c r="C93">
-        <v>56.8039</v>
+        <v>55.4698</v>
       </c>
       <c r="D93">
-        <v>10.2823</v>
+        <v>8.315300000000001</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -7468,12 +7530,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>øster hurup</t>
+          <t>vadehavet</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -7483,7 +7545,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -7518,14 +7580,14 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MFD10292</t>
+          <t>MFD10294</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -7534,24 +7596,24 @@
         </is>
       </c>
       <c r="C94">
-        <v>55.5021</v>
+        <v>56.1388</v>
       </c>
       <c r="D94">
-        <v>10.6131</v>
+        <v>10.2194</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>odense fjord</t>
+          <t>aarhus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -7561,7 +7623,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -7591,19 +7653,19 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MFD10293</t>
+          <t>MFD10295</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -7612,10 +7674,10 @@
         </is>
       </c>
       <c r="C95">
-        <v>55.4698</v>
+        <v>56.7971</v>
       </c>
       <c r="D95">
-        <v>8.315300000000001</v>
+        <v>10.286</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -7629,7 +7691,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>vadehavet</t>
+          <t>øster hurup</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -7681,7 +7743,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MFD10294</t>
+          <t>MFD10296</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7690,10 +7752,10 @@
         </is>
       </c>
       <c r="C96">
-        <v>56.1388</v>
+        <v>55.7514</v>
       </c>
       <c r="D96">
-        <v>10.2194</v>
+        <v>12.5935</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -7702,12 +7764,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>aarhus</t>
+          <t>øresund</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -7717,7 +7779,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7752,14 +7814,14 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MFD10295</t>
+          <t>MFD10297</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7768,10 +7830,10 @@
         </is>
       </c>
       <c r="C97">
-        <v>56.7971</v>
+        <v>55.5674</v>
       </c>
       <c r="D97">
-        <v>10.286</v>
+        <v>12.2865</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -7780,12 +7842,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>øster hurup</t>
+          <t>køge bugt</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -7795,7 +7857,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7830,14 +7892,14 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MFD10296</t>
+          <t>MFD10298</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7846,10 +7908,10 @@
         </is>
       </c>
       <c r="C98">
-        <v>55.7514</v>
+        <v>55.4722</v>
       </c>
       <c r="D98">
-        <v>12.5935</v>
+        <v>9.724299999999999</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -7863,7 +7925,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>øresund</t>
+          <t>middelfart</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -7915,7 +7977,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MFD10297</t>
+          <t>MFD10299</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7924,24 +7986,24 @@
         </is>
       </c>
       <c r="C99">
-        <v>55.5674</v>
+        <v>55.4862</v>
       </c>
       <c r="D99">
-        <v>12.2865</v>
+        <v>10.5984</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>køge bugt</t>
+          <t>odense fjord</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -7981,19 +8043,19 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MFD10298</t>
+          <t>MFD10300</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -8002,24 +8064,24 @@
         </is>
       </c>
       <c r="C100">
-        <v>55.4722</v>
+        <v>56.7062</v>
       </c>
       <c r="D100">
-        <v>9.724299999999999</v>
+        <v>9.201599999999999</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>middelfart</t>
+          <t>hvalpsund</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -8029,7 +8091,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -8059,19 +8121,19 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MFD10299</t>
+          <t>MFD10301</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -8080,24 +8142,24 @@
         </is>
       </c>
       <c r="C101">
-        <v>55.4862</v>
+        <v>54.9551</v>
       </c>
       <c r="D101">
-        <v>10.5984</v>
+        <v>12.4624</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>odense fjord</t>
+          <t>møn</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -8137,19 +8199,19 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MFD10300</t>
+          <t>MFD10302</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -8158,24 +8220,24 @@
         </is>
       </c>
       <c r="C102">
-        <v>56.7062</v>
+        <v>55.9967</v>
       </c>
       <c r="D102">
-        <v>9.201599999999999</v>
+        <v>8.1173</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>hvalpsund</t>
+          <t>hvidesande</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -8215,19 +8277,19 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MFD10301</t>
+          <t>MFD10303</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -8236,10 +8298,10 @@
         </is>
       </c>
       <c r="C103">
-        <v>54.9551</v>
+        <v>56.0422</v>
       </c>
       <c r="D103">
-        <v>12.4624</v>
+        <v>12.6193</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -8248,12 +8310,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>møn</t>
+          <t>helsingør</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -8263,7 +8325,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -8298,14 +8360,14 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MFD10302</t>
+          <t>MFD10304</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -8314,24 +8376,24 @@
         </is>
       </c>
       <c r="C104">
-        <v>55.9967</v>
+        <v>55.7003</v>
       </c>
       <c r="D104">
-        <v>8.1173</v>
+        <v>9.710900000000001</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>hvidesande</t>
+          <t>vejle fjord</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -8341,7 +8403,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -8371,19 +8433,19 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MFD10303</t>
+          <t>MFD10305</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -8392,24 +8454,24 @@
         </is>
       </c>
       <c r="C105">
-        <v>56.0422</v>
+        <v>55.6853</v>
       </c>
       <c r="D105">
-        <v>12.6193</v>
+        <v>12.0709</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>helsingør</t>
+          <t>roskilde fjord</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -8449,19 +8511,19 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MFD10304</t>
+          <t>MFD10306</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -8470,24 +8532,24 @@
         </is>
       </c>
       <c r="C106">
-        <v>55.7003</v>
+        <v>55.5693</v>
       </c>
       <c r="D106">
-        <v>9.710900000000001</v>
+        <v>12.2888</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>vejle fjord</t>
+          <t>køge bugt</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -8527,19 +8589,19 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MFD10305</t>
+          <t>MFD10307</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -8548,24 +8610,24 @@
         </is>
       </c>
       <c r="C107">
-        <v>55.6853</v>
+        <v>55.2521</v>
       </c>
       <c r="D107">
-        <v>12.0709</v>
+        <v>14.8263</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>roskilde fjord</t>
+          <t>bornholm syd</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -8575,7 +8637,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -8605,19 +8667,19 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MFD10306</t>
+          <t>MFD10308</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -8626,10 +8688,10 @@
         </is>
       </c>
       <c r="C108">
-        <v>55.5693</v>
+        <v>55.5648</v>
       </c>
       <c r="D108">
-        <v>12.2888</v>
+        <v>12.2823</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -8638,7 +8700,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -8653,7 +8715,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -8688,14 +8750,14 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MFD10307</t>
+          <t>MFD10309</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -8704,10 +8766,10 @@
         </is>
       </c>
       <c r="C109">
-        <v>55.2521</v>
+        <v>55.2571</v>
       </c>
       <c r="D109">
-        <v>14.8263</v>
+        <v>14.8194</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -8716,7 +8778,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -8731,7 +8793,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -8766,14 +8828,14 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MFD10308</t>
+          <t>MFD10310</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -8782,24 +8844,24 @@
         </is>
       </c>
       <c r="C110">
-        <v>55.5648</v>
+        <v>57.0103</v>
       </c>
       <c r="D110">
-        <v>12.2823</v>
+        <v>9.6347</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>køge bugt</t>
+          <t>aalborg</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -8809,7 +8871,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8839,19 +8901,19 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MFD10309</t>
+          <t>MFD10311</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -8860,10 +8922,10 @@
         </is>
       </c>
       <c r="C111">
-        <v>55.2571</v>
+        <v>55.9672</v>
       </c>
       <c r="D111">
-        <v>14.8194</v>
+        <v>11.8442</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -8872,12 +8934,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>bornholm syd</t>
+          <t>hundested</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -8887,7 +8949,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8922,14 +8984,14 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MFD10310</t>
+          <t>MFD10312</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -8938,24 +9000,24 @@
         </is>
       </c>
       <c r="C112">
-        <v>57.0103</v>
+        <v>57.1439</v>
       </c>
       <c r="D112">
-        <v>9.6347</v>
+        <v>10.4287</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>aalborg</t>
+          <t>hirtshals</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -8965,7 +9027,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -8995,19 +9057,19 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MFD10311</t>
+          <t>MFD10313</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -9016,24 +9078,24 @@
         </is>
       </c>
       <c r="C113">
-        <v>55.9672</v>
+        <v>55.6835</v>
       </c>
       <c r="D113">
-        <v>11.8442</v>
+        <v>12.0731</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>hundested</t>
+          <t>roskilde fjord</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -9043,7 +9105,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -9073,19 +9135,19 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MFD10312</t>
+          <t>MFD10314</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -9094,24 +9156,24 @@
         </is>
       </c>
       <c r="C114">
-        <v>57.1439</v>
+        <v>56.607</v>
       </c>
       <c r="D114">
-        <v>10.4287</v>
+        <v>10.2971</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>hirtshals</t>
+          <t>randers fjord</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -9121,7 +9183,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -9151,19 +9213,19 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MFD10313</t>
+          <t>MFD10315</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -9172,24 +9234,24 @@
         </is>
       </c>
       <c r="C115">
-        <v>55.6835</v>
+        <v>57.3214</v>
       </c>
       <c r="D115">
-        <v>12.0731</v>
+        <v>11.1282</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>roskilde fjord</t>
+          <t>læsø</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -9199,7 +9261,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -9229,19 +9291,19 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MFD10314</t>
+          <t>MFD10316</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -9250,24 +9312,24 @@
         </is>
       </c>
       <c r="C116">
-        <v>56.607</v>
+        <v>54.8474</v>
       </c>
       <c r="D116">
-        <v>10.2971</v>
+        <v>11.4796</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>randers fjord</t>
+          <t>bandholm</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -9307,19 +9369,19 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MFD10315</t>
+          <t>MFD10317</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -9328,10 +9390,10 @@
         </is>
       </c>
       <c r="C117">
-        <v>57.3214</v>
+        <v>56.1228</v>
       </c>
       <c r="D117">
-        <v>11.1282</v>
+        <v>10.2234</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -9340,12 +9402,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>læsø</t>
+          <t>aarhus</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -9355,7 +9417,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -9390,14 +9452,14 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>MFD10316</t>
+          <t>MFD10318</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -9406,24 +9468,24 @@
         </is>
       </c>
       <c r="C118">
-        <v>54.8474</v>
+        <v>55.703</v>
       </c>
       <c r="D118">
-        <v>11.4796</v>
+        <v>9.6995</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>bandholm</t>
+          <t>vejle fjord</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -9433,7 +9495,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -9463,19 +9525,19 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MFD10317</t>
+          <t>MFD10320</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -9484,24 +9546,24 @@
         </is>
       </c>
       <c r="C119">
-        <v>56.1228</v>
+        <v>57.055</v>
       </c>
       <c r="D119">
-        <v>10.2234</v>
+        <v>9.8705</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>aarhus</t>
+          <t>aalborg</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -9511,7 +9573,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -9541,19 +9603,19 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MFD10318</t>
+          <t>MFD10321</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -9562,24 +9624,24 @@
         </is>
       </c>
       <c r="C120">
-        <v>55.703</v>
+        <v>54.919</v>
       </c>
       <c r="D120">
-        <v>9.6995</v>
+        <v>11.4921</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>vejle fjord</t>
+          <t>bandholm</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -9589,7 +9651,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -9619,19 +9681,19 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MFD10320</t>
+          <t>MFD10324</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -9640,24 +9702,24 @@
         </is>
       </c>
       <c r="C121">
-        <v>57.055</v>
+        <v>56.4455</v>
       </c>
       <c r="D121">
-        <v>9.8705</v>
+        <v>10.9598</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>aalborg</t>
+          <t>djursland</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -9697,19 +9759,19 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MFD10321</t>
+          <t>MFD10325</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -9718,10 +9780,10 @@
         </is>
       </c>
       <c r="C122">
-        <v>54.919</v>
+        <v>55.759</v>
       </c>
       <c r="D122">
-        <v>11.4921</v>
+        <v>11.3175</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -9735,7 +9797,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>bandholm</t>
+          <t>røsnæs</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -9787,7 +9849,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MFD10324</t>
+          <t>MFD10326</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -9796,24 +9858,24 @@
         </is>
       </c>
       <c r="C123">
-        <v>56.4455</v>
+        <v>57.0595</v>
       </c>
       <c r="D123">
-        <v>10.9598</v>
+        <v>9.8713</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>djursland</t>
+          <t>aalborg</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -9823,7 +9885,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -9853,19 +9915,19 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MFD10325</t>
+          <t>MFD10327</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -9874,10 +9936,10 @@
         </is>
       </c>
       <c r="C124">
-        <v>55.759</v>
+        <v>55.9898</v>
       </c>
       <c r="D124">
-        <v>11.3175</v>
+        <v>8.1205</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -9886,12 +9948,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>hvidesande</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -9901,7 +9963,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -9936,14 +9998,14 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MFD10326</t>
+          <t>MFD10328</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -9952,10 +10014,10 @@
         </is>
       </c>
       <c r="C125">
-        <v>57.0595</v>
+        <v>56.6097</v>
       </c>
       <c r="D125">
-        <v>9.8713</v>
+        <v>10.3029</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -9964,12 +10026,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>aalborg</t>
+          <t>randers fjord</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -9979,7 +10041,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -10014,14 +10076,14 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MFD10327</t>
+          <t>MFD10329</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -10030,24 +10092,24 @@
         </is>
       </c>
       <c r="C126">
-        <v>55.9898</v>
+        <v>56.5539</v>
       </c>
       <c r="D126">
-        <v>8.1205</v>
+        <v>8.610099999999999</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>hvidesande</t>
+          <t>venø</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -10057,7 +10119,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -10087,19 +10149,19 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MFD10328</t>
+          <t>MFD10330</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -10108,10 +10170,10 @@
         </is>
       </c>
       <c r="C127">
-        <v>56.6097</v>
+        <v>56.5503</v>
       </c>
       <c r="D127">
-        <v>10.3029</v>
+        <v>8.6145</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -10125,7 +10187,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>randers fjord</t>
+          <t>venø</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -10177,7 +10239,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MFD10329</t>
+          <t>MFD10331</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -10186,24 +10248,24 @@
         </is>
       </c>
       <c r="C128">
-        <v>56.5539</v>
+        <v>55.0648</v>
       </c>
       <c r="D128">
-        <v>8.610099999999999</v>
+        <v>10.2187</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>venø</t>
+          <t>dyreborg sydfyn</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -10213,7 +10275,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -10243,19 +10305,19 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MFD10330</t>
+          <t>MFD10332</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -10264,10 +10326,10 @@
         </is>
       </c>
       <c r="C129">
-        <v>56.5503</v>
+        <v>55.6798</v>
       </c>
       <c r="D129">
-        <v>8.6145</v>
+        <v>12.0689</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -10281,7 +10343,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>venø</t>
+          <t>roskilde fjord</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -10333,7 +10395,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MFD10331</t>
+          <t>MFD10333</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -10342,10 +10404,10 @@
         </is>
       </c>
       <c r="C130">
-        <v>55.0648</v>
+        <v>55.9689</v>
       </c>
       <c r="D130">
-        <v>10.2187</v>
+        <v>11.8461</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -10359,7 +10421,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>dyreborg sydfyn</t>
+          <t>hundested</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -10411,7 +10473,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MFD10332</t>
+          <t>MFD10334</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -10420,24 +10482,24 @@
         </is>
       </c>
       <c r="C131">
-        <v>55.6798</v>
+        <v>55.3475</v>
       </c>
       <c r="D131">
-        <v>12.0689</v>
+        <v>11.1011</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>roskilde fjord</t>
+          <t>halsskov</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -10447,7 +10509,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -10477,19 +10539,19 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MFD10333</t>
+          <t>MFD10335</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -10498,10 +10560,10 @@
         </is>
       </c>
       <c r="C132">
-        <v>55.9689</v>
+        <v>55.3465</v>
       </c>
       <c r="D132">
-        <v>11.8461</v>
+        <v>11.101</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -10510,12 +10572,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>hundested</t>
+          <t>halsskov</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -10525,7 +10587,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -10560,14 +10622,14 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MFD10334</t>
+          <t>MFD10336</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -10576,10 +10638,10 @@
         </is>
       </c>
       <c r="C133">
-        <v>55.3475</v>
+        <v>55.7588</v>
       </c>
       <c r="D133">
-        <v>11.1011</v>
+        <v>11.3493</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -10593,7 +10655,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>halsskov</t>
+          <t>røsnæs</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -10645,7 +10707,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MFD10335</t>
+          <t>MFD10337</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -10654,10 +10716,10 @@
         </is>
       </c>
       <c r="C134">
-        <v>55.3465</v>
+        <v>54.885</v>
       </c>
       <c r="D134">
-        <v>11.101</v>
+        <v>11.0135</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -10666,12 +10728,12 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>halsskov</t>
+          <t>spodsbjerg lolland</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -10681,7 +10743,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10716,14 +10778,14 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MFD10336</t>
+          <t>MFD10338</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -10732,10 +10794,10 @@
         </is>
       </c>
       <c r="C135">
-        <v>55.7588</v>
+        <v>55.328</v>
       </c>
       <c r="D135">
-        <v>11.3493</v>
+        <v>11.1284</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -10744,12 +10806,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>halsskov</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -10759,7 +10821,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10794,14 +10856,14 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MFD10337</t>
+          <t>MFD10340</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -10810,10 +10872,10 @@
         </is>
       </c>
       <c r="C136">
-        <v>54.885</v>
+        <v>55.7546</v>
       </c>
       <c r="D136">
-        <v>11.0135</v>
+        <v>11.3223</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -10822,12 +10884,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>spodsbjerg lolland</t>
+          <t>røsnæs</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -10837,7 +10899,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10872,14 +10934,14 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MFD10338</t>
+          <t>MFD10342</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -10888,10 +10950,10 @@
         </is>
       </c>
       <c r="C137">
-        <v>55.328</v>
+        <v>55.9513</v>
       </c>
       <c r="D137">
-        <v>11.1284</v>
+        <v>11.8471</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -10900,12 +10962,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>halsskov</t>
+          <t>hundested</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -10915,7 +10977,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10950,14 +11012,14 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MFD10340</t>
+          <t>MFD10343</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -10966,10 +11028,10 @@
         </is>
       </c>
       <c r="C138">
-        <v>55.7546</v>
+        <v>55.1182</v>
       </c>
       <c r="D138">
-        <v>11.3223</v>
+        <v>9.488200000000001</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -10978,12 +11040,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>genner bugt</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -10993,7 +11055,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -11028,14 +11090,14 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MFD10342</t>
+          <t>MFD10344</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -11044,10 +11106,10 @@
         </is>
       </c>
       <c r="C139">
-        <v>55.9513</v>
+        <v>56.4481</v>
       </c>
       <c r="D139">
-        <v>11.8471</v>
+        <v>10.955</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -11056,12 +11118,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>hundested</t>
+          <t>djursland</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -11071,7 +11133,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -11106,14 +11168,14 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MFD10343</t>
+          <t>MFD10345</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -11122,10 +11184,10 @@
         </is>
       </c>
       <c r="C140">
-        <v>55.1182</v>
+        <v>55.7492</v>
       </c>
       <c r="D140">
-        <v>9.488200000000001</v>
+        <v>12.5947</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -11134,12 +11196,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>genner bugt</t>
+          <t>øresund</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -11149,7 +11211,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -11184,14 +11246,14 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MFD10344</t>
+          <t>MFD10346</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -11200,10 +11262,10 @@
         </is>
       </c>
       <c r="C141">
-        <v>56.4481</v>
+        <v>55.1146</v>
       </c>
       <c r="D141">
-        <v>10.955</v>
+        <v>9.502700000000001</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -11212,12 +11274,12 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>djursland</t>
+          <t>genner bugt</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -11227,7 +11289,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -11262,14 +11324,14 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MFD10345</t>
+          <t>MFD10347</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -11278,10 +11340,10 @@
         </is>
       </c>
       <c r="C142">
-        <v>55.7492</v>
+        <v>54.8791</v>
       </c>
       <c r="D142">
-        <v>12.5947</v>
+        <v>11.0152</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -11295,7 +11357,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>øresund</t>
+          <t>spodsbjerg lolland</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -11347,7 +11409,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MFD10346</t>
+          <t>MFD10348</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -11356,10 +11418,10 @@
         </is>
       </c>
       <c r="C143">
-        <v>55.1146</v>
+        <v>56.0411</v>
       </c>
       <c r="D143">
-        <v>9.502700000000001</v>
+        <v>12.6181</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -11373,7 +11435,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>genner bugt</t>
+          <t>helsingør</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -11425,7 +11487,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>MFD10347</t>
+          <t>MFD10349</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -11434,24 +11496,24 @@
         </is>
       </c>
       <c r="C144">
-        <v>54.8791</v>
+        <v>56.7128</v>
       </c>
       <c r="D144">
-        <v>11.0152</v>
+        <v>9.209099999999999</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>spodsbjerg lolland</t>
+          <t>hvalpsund</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -11461,7 +11523,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -11491,19 +11553,19 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MFD10348</t>
+          <t>MFD10350</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -11512,10 +11574,10 @@
         </is>
       </c>
       <c r="C145">
-        <v>56.0411</v>
+        <v>56.0445</v>
       </c>
       <c r="D145">
-        <v>12.6181</v>
+        <v>12.6091</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -11524,7 +11586,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -11539,7 +11601,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -11574,14 +11636,14 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MFD10349</t>
+          <t>MFD10351</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -11590,10 +11652,10 @@
         </is>
       </c>
       <c r="C146">
-        <v>56.7128</v>
+        <v>56.7105</v>
       </c>
       <c r="D146">
-        <v>9.209099999999999</v>
+        <v>9.207000000000001</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -11602,7 +11664,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -11617,7 +11679,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -11652,14 +11714,14 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MFD10350</t>
+          <t>MFD10352</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -11668,10 +11730,10 @@
         </is>
       </c>
       <c r="C147">
-        <v>56.0445</v>
+        <v>55.0224</v>
       </c>
       <c r="D147">
-        <v>12.6091</v>
+        <v>14.9037</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -11680,12 +11742,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>helsingør</t>
+          <t>bornholm nord</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -11695,7 +11757,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -11730,14 +11792,14 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MFD10351</t>
+          <t>MFD10353</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -11746,24 +11808,24 @@
         </is>
       </c>
       <c r="C148">
-        <v>56.7105</v>
+        <v>57.3229</v>
       </c>
       <c r="D148">
-        <v>9.207000000000001</v>
+        <v>11.1329</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>hvalpsund</t>
+          <t>læsø</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -11773,7 +11835,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -11803,19 +11865,19 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MFD10352</t>
+          <t>MFD10354</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -11824,10 +11886,10 @@
         </is>
       </c>
       <c r="C149">
-        <v>55.0224</v>
+        <v>55.0416</v>
       </c>
       <c r="D149">
-        <v>14.9037</v>
+        <v>10.2548</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -11836,12 +11898,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>bornholm nord</t>
+          <t>dyreborg sydfyn</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -11851,7 +11913,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -11886,14 +11948,14 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MFD10353</t>
+          <t>MFD10355</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -11902,10 +11964,10 @@
         </is>
       </c>
       <c r="C150">
-        <v>57.3229</v>
+        <v>57.1265</v>
       </c>
       <c r="D150">
-        <v>11.1329</v>
+        <v>8.620799999999999</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -11914,12 +11976,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>læsø</t>
+          <t>hanstholm</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -11929,7 +11991,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11964,14 +12026,14 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MFD10354</t>
+          <t>MFD10356</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -11980,24 +12042,24 @@
         </is>
       </c>
       <c r="C151">
-        <v>55.0416</v>
+        <v>55.133</v>
       </c>
       <c r="D151">
-        <v>10.2548</v>
+        <v>12.0876</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>dyreborg sydfyn</t>
+          <t>præstø fjord</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -12037,19 +12099,19 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MFD10355</t>
+          <t>MFD10358</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -12058,10 +12120,10 @@
         </is>
       </c>
       <c r="C152">
-        <v>57.1265</v>
+        <v>54.8378</v>
       </c>
       <c r="D152">
-        <v>8.620799999999999</v>
+        <v>11.4936</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -12075,7 +12137,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>hanstholm</t>
+          <t>bandholm</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -12127,7 +12189,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MFD10356</t>
+          <t>MFD10359</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -12136,24 +12198,24 @@
         </is>
       </c>
       <c r="C153">
-        <v>55.133</v>
+        <v>55.0205</v>
       </c>
       <c r="D153">
-        <v>12.0876</v>
+        <v>14.9119</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>præstø fjord</t>
+          <t>bornholm nord</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -12163,7 +12225,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -12193,19 +12255,19 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MFD10358</t>
+          <t>MFD10360</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -12214,10 +12276,10 @@
         </is>
       </c>
       <c r="C154">
-        <v>54.8378</v>
+        <v>55.759</v>
       </c>
       <c r="D154">
-        <v>11.4936</v>
+        <v>12.6027</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -12231,7 +12293,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>bandholm</t>
+          <t>øresund</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -12283,7 +12345,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MFD10359</t>
+          <t>MFD10361</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -12292,10 +12354,10 @@
         </is>
       </c>
       <c r="C155">
-        <v>55.0205</v>
+        <v>57.1264</v>
       </c>
       <c r="D155">
-        <v>14.9119</v>
+        <v>8.6151</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -12309,7 +12371,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>bornholm nord</t>
+          <t>hanstholm</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -12361,7 +12423,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MFD10360</t>
+          <t>MFD10362</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -12370,10 +12432,10 @@
         </is>
       </c>
       <c r="C156">
-        <v>55.759</v>
+        <v>55.4464</v>
       </c>
       <c r="D156">
-        <v>12.6027</v>
+        <v>8.406599999999999</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -12387,7 +12449,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>øresund</t>
+          <t>vadehavet</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -12439,7 +12501,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MFD10361</t>
+          <t>MFD10363</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -12448,10 +12510,10 @@
         </is>
       </c>
       <c r="C157">
-        <v>57.1264</v>
+        <v>57.3387</v>
       </c>
       <c r="D157">
-        <v>8.6151</v>
+        <v>10.526</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -12460,12 +12522,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>hanstholm</t>
+          <t>frederikshavn</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -12475,7 +12537,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -12509,162 +12571,6 @@
         </is>
       </c>
       <c r="P157" t="inlineStr">
-        <is>
-          <t>Sandy coastal seabed</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>MFD10362</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>sediment</t>
-        </is>
-      </c>
-      <c r="C158">
-        <v>55.4464</v>
-      </c>
-      <c r="D158">
-        <v>8.406599999999999</v>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>coast</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>vadehavet</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-10-22</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>rocky seabed (rb)</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>P11_2</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>Sediment</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>2020-10-22</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>Saltwater</t>
-        </is>
-      </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P158" t="inlineStr">
-        <is>
-          <t>Rocky coastal seabed</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>MFD10363</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>sediment</t>
-        </is>
-      </c>
-      <c r="C159">
-        <v>57.3387</v>
-      </c>
-      <c r="D159">
-        <v>10.526</v>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>coast</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>frederikshavn</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-10-22</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>rocky seabed (rb)</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>P11_2</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>Sediment</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>2020-10-22</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>Saltwater</t>
-        </is>
-      </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P159" t="inlineStr">
         <is>
           <t>Rocky coastal seabed</t>
         </is>

--- a/analysis/metadata/P11_2/P11_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P11_2/P11_2_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P157"/>
+  <dimension ref="A1:P156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-30</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-06</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-19</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>djursland</t>
+          <t>grenå</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-01</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-14</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>aalborg</t>
+          <t>aalborg nibe</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-06</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-19</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-23</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>aarhus</t>
+          <t>aarhus bugten</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-27</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-26</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>bornholm syd</t>
+          <t>bornholm nord</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-13</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-15</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-22</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-06</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>aalborg</t>
+          <t>aalborg nibe</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-06</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-13</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-19</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>bornholm nord</t>
+          <t>bornholm syd</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-11</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-30</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-02</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-18</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>halsskov</t>
+          <t>storebælt korsør</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-25</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>spodsbjerg lolland</t>
+          <t>tårs</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-29</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>øresund</t>
+          <t>skovshoved</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-10</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-15</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-07</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>djursland</t>
+          <t>grenå</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-01</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-26</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-20</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-21</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>spodsbjerg lolland</t>
+          <t>tårs</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-29</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3102,11 +3102,27 @@
           <t>sediment</t>
         </is>
       </c>
+      <c r="C36">
+        <v>55.0416</v>
+      </c>
+      <c r="D36">
+        <v>10.2548</v>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>coast</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1103</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>sydfynske øhav</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
           <t>2021-12-14</t>
@@ -3134,7 +3150,22 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2019-05-28</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Open sea and tidal areas</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3228,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-30</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3275,7 +3306,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3353,7 +3384,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-09</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3431,7 +3462,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-22</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3509,7 +3540,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-14</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3557,7 +3588,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>øresund</t>
+          <t>skovshoved</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3587,7 +3618,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-10</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3665,7 +3696,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-27</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3743,7 +3774,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-07</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3821,7 +3852,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-20</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3869,7 +3900,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>frederikshavn</t>
+          <t>sæby</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3899,7 +3930,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-08</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3977,7 +4008,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-05</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4025,7 +4056,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>nekselø bugt</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4055,7 +4086,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-24</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4133,7 +4164,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-27</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4211,7 +4242,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-13</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4289,7 +4320,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-05</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4367,7 +4398,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-05</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4415,7 +4446,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>bornholm nord</t>
+          <t>bornholm syd</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4445,7 +4476,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-11</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4493,7 +4524,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>frederikshavn</t>
+          <t>sæby</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4523,7 +4554,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-08</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4601,7 +4632,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-09</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4649,7 +4680,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>dyreborg sydfyn</t>
+          <t>sydfynske øhav</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4679,7 +4710,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-28</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4757,7 +4788,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-23</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4835,7 +4866,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-22</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4883,7 +4914,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>bornholm syd</t>
+          <t>bornholm nord</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4913,7 +4944,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-13</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4961,7 +4992,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>spodsbjerg lolland</t>
+          <t>tårs</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4991,7 +5022,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-29</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5069,7 +5100,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-06</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5117,7 +5148,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>aalborg</t>
+          <t>aalborg nibe</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -5147,7 +5178,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-16</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5225,7 +5256,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-21</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5273,7 +5304,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>nekselø bugt</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5303,7 +5334,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-24</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5381,7 +5412,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-02</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5459,7 +5490,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-14</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5507,7 +5538,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>øresund</t>
+          <t>skovshoved</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5537,7 +5568,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-10</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5585,7 +5616,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>aarhus</t>
+          <t>aarhus bugten</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5615,7 +5646,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-27</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5693,7 +5724,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-18</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5771,7 +5802,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5819,7 +5850,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>halsskov</t>
+          <t>storebælt korsør</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5849,7 +5880,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-25</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5927,7 +5958,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-15</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -6005,7 +6036,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-26</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6083,7 +6114,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-20</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6131,7 +6162,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>dyreborg sydfyn</t>
+          <t>sydfynske øhav</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6161,7 +6192,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-28</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -6239,7 +6270,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-23</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -6287,7 +6318,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>nekselø bugt</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6317,7 +6348,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-24</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6365,7 +6396,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>halsskov</t>
+          <t>storebælt korsør</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -6395,7 +6426,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-25</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6473,7 +6504,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-05-20</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6551,7 +6582,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2019-06-04</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6629,7 +6660,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-18</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6707,7 +6738,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6755,7 +6786,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>dyreborg sydfyn</t>
+          <t>sydfynske øhav</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6785,7 +6816,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6863,7 +6894,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-10</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6941,7 +6972,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-10</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -7019,7 +7050,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -7097,7 +7128,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-26</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -7145,7 +7176,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>spodsbjerg lolland</t>
+          <t>tårs</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -7175,7 +7206,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-22</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -7223,7 +7254,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>frederikshavn</t>
+          <t>sæby</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -7253,7 +7284,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-29</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -7331,7 +7362,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-24</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -7353,7 +7384,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MFD10290</t>
+          <t>MFD10292</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -7362,24 +7393,24 @@
         </is>
       </c>
       <c r="C91">
-        <v>56.8039</v>
+        <v>55.5021</v>
       </c>
       <c r="D91">
-        <v>10.2823</v>
+        <v>10.6131</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>øster hurup</t>
+          <t>odense fjord</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -7389,7 +7420,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7409,7 +7440,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-18</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7419,19 +7450,19 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MFD10292</t>
+          <t>MFD10293</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -7440,24 +7471,24 @@
         </is>
       </c>
       <c r="C92">
-        <v>55.5021</v>
+        <v>55.4698</v>
       </c>
       <c r="D92">
-        <v>10.6131</v>
+        <v>8.315300000000001</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>odense fjord</t>
+          <t>vadehavet</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -7467,7 +7498,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7487,7 +7518,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-24</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7497,19 +7528,19 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MFD10293</t>
+          <t>MFD10294</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -7518,10 +7549,10 @@
         </is>
       </c>
       <c r="C93">
-        <v>55.4698</v>
+        <v>56.1388</v>
       </c>
       <c r="D93">
-        <v>8.315300000000001</v>
+        <v>10.2194</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -7530,12 +7561,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>vadehavet</t>
+          <t>aarhus bugten</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -7545,7 +7576,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -7565,7 +7596,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7580,14 +7611,14 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MFD10294</t>
+          <t>MFD10295</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -7596,10 +7627,10 @@
         </is>
       </c>
       <c r="C94">
-        <v>56.1388</v>
+        <v>56.7971</v>
       </c>
       <c r="D94">
-        <v>10.2194</v>
+        <v>10.286</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -7608,12 +7639,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>aarhus</t>
+          <t>øster hurup</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -7623,7 +7654,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -7643,7 +7674,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-02</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7658,14 +7689,14 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MFD10295</t>
+          <t>MFD10296</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -7674,10 +7705,10 @@
         </is>
       </c>
       <c r="C95">
-        <v>56.7971</v>
+        <v>55.7514</v>
       </c>
       <c r="D95">
-        <v>10.286</v>
+        <v>12.5935</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -7691,7 +7722,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>øster hurup</t>
+          <t>skovshoved</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -7721,7 +7752,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-02</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7743,7 +7774,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MFD10296</t>
+          <t>MFD10297</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7752,10 +7783,10 @@
         </is>
       </c>
       <c r="C96">
-        <v>55.7514</v>
+        <v>55.5674</v>
       </c>
       <c r="D96">
-        <v>12.5935</v>
+        <v>12.2865</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -7764,12 +7795,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>øresund</t>
+          <t>køge bugt</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -7779,7 +7810,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7799,7 +7830,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-03</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7814,14 +7845,14 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MFD10297</t>
+          <t>MFD10298</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7830,10 +7861,10 @@
         </is>
       </c>
       <c r="C97">
-        <v>55.5674</v>
+        <v>55.4722</v>
       </c>
       <c r="D97">
-        <v>12.2865</v>
+        <v>9.724299999999999</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -7842,12 +7873,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>køge bugt</t>
+          <t>middelfart</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -7857,7 +7888,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7877,7 +7908,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7892,14 +7923,14 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MFD10298</t>
+          <t>MFD10299</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7908,24 +7939,24 @@
         </is>
       </c>
       <c r="C98">
-        <v>55.4722</v>
+        <v>55.4862</v>
       </c>
       <c r="D98">
-        <v>9.724299999999999</v>
+        <v>10.5984</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>middelfart</t>
+          <t>odense fjord</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -7935,7 +7966,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7955,7 +7986,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-18</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7965,19 +7996,19 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MFD10299</t>
+          <t>MFD10300</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7986,10 +8017,10 @@
         </is>
       </c>
       <c r="C99">
-        <v>55.4862</v>
+        <v>56.7062</v>
       </c>
       <c r="D99">
-        <v>10.5984</v>
+        <v>9.201599999999999</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -8003,7 +8034,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>odense fjord</t>
+          <t>hvalpsund</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -8033,7 +8064,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -8055,7 +8086,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MFD10300</t>
+          <t>MFD10301</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -8064,24 +8095,24 @@
         </is>
       </c>
       <c r="C100">
-        <v>56.7062</v>
+        <v>54.9551</v>
       </c>
       <c r="D100">
-        <v>9.201599999999999</v>
+        <v>12.4624</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>hvalpsund</t>
+          <t>møn</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -8111,7 +8142,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-24</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -8121,19 +8152,19 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MFD10301</t>
+          <t>MFD10302</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -8142,10 +8173,10 @@
         </is>
       </c>
       <c r="C101">
-        <v>54.9551</v>
+        <v>55.9967</v>
       </c>
       <c r="D101">
-        <v>12.4624</v>
+        <v>8.1173</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -8159,7 +8190,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>møn</t>
+          <t>hvidesande</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -8189,7 +8220,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-24</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -8211,7 +8242,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MFD10302</t>
+          <t>MFD10303</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -8220,10 +8251,10 @@
         </is>
       </c>
       <c r="C102">
-        <v>55.9967</v>
+        <v>56.0422</v>
       </c>
       <c r="D102">
-        <v>8.1173</v>
+        <v>12.6193</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -8232,12 +8263,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>hvidesande</t>
+          <t>helsingør</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -8247,7 +8278,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -8267,7 +8298,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-16</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -8282,14 +8313,14 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MFD10303</t>
+          <t>MFD10304</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -8298,24 +8329,24 @@
         </is>
       </c>
       <c r="C103">
-        <v>56.0422</v>
+        <v>55.7003</v>
       </c>
       <c r="D103">
-        <v>12.6193</v>
+        <v>9.710900000000001</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>helsingør</t>
+          <t>vejle fjord</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -8325,7 +8356,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -8345,7 +8376,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-19</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -8355,19 +8386,19 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MFD10304</t>
+          <t>MFD10305</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -8376,10 +8407,10 @@
         </is>
       </c>
       <c r="C104">
-        <v>55.7003</v>
+        <v>55.6853</v>
       </c>
       <c r="D104">
-        <v>9.710900000000001</v>
+        <v>12.0709</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -8388,12 +8419,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>vejle fjord</t>
+          <t>roskilde fjord</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -8403,7 +8434,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -8423,7 +8454,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-30</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -8438,14 +8469,14 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MFD10305</t>
+          <t>MFD10306</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -8454,24 +8485,24 @@
         </is>
       </c>
       <c r="C105">
-        <v>55.6853</v>
+        <v>55.5693</v>
       </c>
       <c r="D105">
-        <v>12.0709</v>
+        <v>12.2888</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>roskilde fjord</t>
+          <t>køge bugt</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -8481,7 +8512,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -8501,7 +8532,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-03</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -8511,19 +8542,19 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MFD10306</t>
+          <t>MFD10307</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -8532,10 +8563,10 @@
         </is>
       </c>
       <c r="C106">
-        <v>55.5693</v>
+        <v>55.2521</v>
       </c>
       <c r="D106">
-        <v>12.2888</v>
+        <v>14.8263</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -8544,12 +8575,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>køge bugt</t>
+          <t>bornholm nord</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -8559,7 +8590,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -8579,7 +8610,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-14</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -8594,14 +8625,14 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MFD10307</t>
+          <t>MFD10308</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -8610,10 +8641,10 @@
         </is>
       </c>
       <c r="C107">
-        <v>55.2521</v>
+        <v>55.5648</v>
       </c>
       <c r="D107">
-        <v>14.8263</v>
+        <v>12.2823</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -8622,12 +8653,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>bornholm syd</t>
+          <t>køge bugt</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -8637,7 +8668,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -8657,7 +8688,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-03</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -8672,14 +8703,14 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MFD10308</t>
+          <t>MFD10309</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -8688,10 +8719,10 @@
         </is>
       </c>
       <c r="C108">
-        <v>55.5648</v>
+        <v>55.2571</v>
       </c>
       <c r="D108">
-        <v>12.2823</v>
+        <v>14.8194</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -8700,12 +8731,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>køge bugt</t>
+          <t>bornholm nord</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -8715,7 +8746,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -8735,7 +8766,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-14</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8750,14 +8781,14 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MFD10309</t>
+          <t>MFD10310</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -8766,24 +8797,24 @@
         </is>
       </c>
       <c r="C109">
-        <v>55.2571</v>
+        <v>57.0103</v>
       </c>
       <c r="D109">
-        <v>14.8194</v>
+        <v>9.6347</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>bornholm syd</t>
+          <t>aalborg nibe</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -8813,7 +8844,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-03</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8823,19 +8854,19 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MFD10310</t>
+          <t>MFD10311</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -8844,24 +8875,24 @@
         </is>
       </c>
       <c r="C110">
-        <v>57.0103</v>
+        <v>55.9672</v>
       </c>
       <c r="D110">
-        <v>9.6347</v>
+        <v>11.8442</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>aalborg</t>
+          <t>hundested</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -8871,7 +8902,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8891,7 +8922,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -8901,19 +8932,19 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MFD10311</t>
+          <t>MFD10312</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -8922,10 +8953,10 @@
         </is>
       </c>
       <c r="C111">
-        <v>55.9672</v>
+        <v>57.5961</v>
       </c>
       <c r="D111">
-        <v>11.8442</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -8939,7 +8970,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>hundested</t>
+          <t>hirtshals</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -8969,7 +9000,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-26</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -8991,7 +9022,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MFD10312</t>
+          <t>MFD10313</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -9000,24 +9031,24 @@
         </is>
       </c>
       <c r="C112">
-        <v>57.1439</v>
+        <v>55.6835</v>
       </c>
       <c r="D112">
-        <v>10.4287</v>
+        <v>12.0731</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>hirtshals</t>
+          <t>roskilde fjord</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -9027,7 +9058,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -9047,7 +9078,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-30</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -9057,19 +9088,19 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MFD10313</t>
+          <t>MFD10314</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -9078,10 +9109,10 @@
         </is>
       </c>
       <c r="C113">
-        <v>55.6835</v>
+        <v>56.607</v>
       </c>
       <c r="D113">
-        <v>12.0731</v>
+        <v>10.2971</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -9095,7 +9126,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>roskilde fjord</t>
+          <t>randers fjord</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -9125,7 +9156,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-05</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -9147,7 +9178,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MFD10314</t>
+          <t>MFD10315</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -9156,24 +9187,24 @@
         </is>
       </c>
       <c r="C114">
-        <v>56.607</v>
+        <v>57.3214</v>
       </c>
       <c r="D114">
-        <v>10.2971</v>
+        <v>11.1282</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>randers fjord</t>
+          <t>læsø</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -9183,7 +9214,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -9203,7 +9234,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-28</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -9213,19 +9244,19 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MFD10315</t>
+          <t>MFD10316</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -9234,10 +9265,10 @@
         </is>
       </c>
       <c r="C115">
-        <v>57.3214</v>
+        <v>54.8474</v>
       </c>
       <c r="D115">
-        <v>11.1282</v>
+        <v>11.4796</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -9246,12 +9277,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>læsø</t>
+          <t>bandholm</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -9261,7 +9292,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -9281,7 +9312,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -9296,14 +9327,14 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MFD10316</t>
+          <t>MFD10317</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -9312,10 +9343,10 @@
         </is>
       </c>
       <c r="C116">
-        <v>54.8474</v>
+        <v>56.1228</v>
       </c>
       <c r="D116">
-        <v>11.4796</v>
+        <v>10.2234</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -9329,7 +9360,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>bandholm</t>
+          <t>aarhus bugten</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -9359,7 +9390,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -9381,7 +9412,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MFD10317</t>
+          <t>MFD10318</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -9390,24 +9421,24 @@
         </is>
       </c>
       <c r="C117">
-        <v>56.1228</v>
+        <v>55.703</v>
       </c>
       <c r="D117">
-        <v>10.2234</v>
+        <v>9.6995</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>aarhus</t>
+          <t>vejle fjord</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -9417,7 +9448,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -9437,7 +9468,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-19</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -9447,19 +9478,19 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>MFD10318</t>
+          <t>MFD10320</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -9468,10 +9499,10 @@
         </is>
       </c>
       <c r="C118">
-        <v>55.703</v>
+        <v>57.055</v>
       </c>
       <c r="D118">
-        <v>9.6995</v>
+        <v>9.8705</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -9485,7 +9516,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>vejle fjord</t>
+          <t>aalborg nibe</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -9515,7 +9546,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-03</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -9537,7 +9568,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MFD10320</t>
+          <t>MFD10321</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -9546,24 +9577,24 @@
         </is>
       </c>
       <c r="C119">
-        <v>57.055</v>
+        <v>54.919</v>
       </c>
       <c r="D119">
-        <v>9.8705</v>
+        <v>11.4921</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>aalborg</t>
+          <t>bandholm</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -9573,7 +9604,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -9593,7 +9624,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -9603,19 +9634,19 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MFD10321</t>
+          <t>MFD10324</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -9624,10 +9655,10 @@
         </is>
       </c>
       <c r="C120">
-        <v>54.919</v>
+        <v>56.4455</v>
       </c>
       <c r="D120">
-        <v>11.4921</v>
+        <v>10.9598</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -9636,12 +9667,12 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>bandholm</t>
+          <t>grenå</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -9651,7 +9682,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -9671,7 +9702,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -9686,14 +9717,14 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MFD10324</t>
+          <t>MFD10325</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -9702,10 +9733,10 @@
         </is>
       </c>
       <c r="C121">
-        <v>56.4455</v>
+        <v>55.759</v>
       </c>
       <c r="D121">
-        <v>10.9598</v>
+        <v>11.3175</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -9714,12 +9745,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>djursland</t>
+          <t>nekselø bugt</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -9729,7 +9760,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -9749,7 +9780,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-09</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -9764,14 +9795,14 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MFD10325</t>
+          <t>MFD10326</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -9780,24 +9811,24 @@
         </is>
       </c>
       <c r="C122">
-        <v>55.759</v>
+        <v>57.0595</v>
       </c>
       <c r="D122">
-        <v>11.3175</v>
+        <v>9.8713</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>aalborg nibe</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -9827,7 +9858,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-03</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -9837,19 +9868,19 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MFD10326</t>
+          <t>MFD10327</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -9858,24 +9889,24 @@
         </is>
       </c>
       <c r="C123">
-        <v>57.0595</v>
+        <v>55.9898</v>
       </c>
       <c r="D123">
-        <v>9.8713</v>
+        <v>8.1205</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>aalborg</t>
+          <t>hvidesande</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -9885,7 +9916,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -9905,7 +9936,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -9915,19 +9946,19 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MFD10327</t>
+          <t>MFD10328</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -9936,24 +9967,24 @@
         </is>
       </c>
       <c r="C124">
-        <v>55.9898</v>
+        <v>56.6097</v>
       </c>
       <c r="D124">
-        <v>8.1205</v>
+        <v>10.3029</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>hvidesande</t>
+          <t>randers fjord</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -9963,7 +9994,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -9983,7 +10014,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-05</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -9993,19 +10024,19 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MFD10328</t>
+          <t>MFD10329</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -10014,10 +10045,10 @@
         </is>
       </c>
       <c r="C125">
-        <v>56.6097</v>
+        <v>56.5539</v>
       </c>
       <c r="D125">
-        <v>10.3029</v>
+        <v>8.610099999999999</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -10026,12 +10057,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>randers fjord</t>
+          <t>venø</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -10041,7 +10072,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -10061,7 +10092,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-09</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -10076,14 +10107,14 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MFD10329</t>
+          <t>MFD10330</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -10092,10 +10123,10 @@
         </is>
       </c>
       <c r="C126">
-        <v>56.5539</v>
+        <v>56.5503</v>
       </c>
       <c r="D126">
-        <v>8.610099999999999</v>
+        <v>8.6145</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -10104,7 +10135,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -10119,7 +10150,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -10139,7 +10170,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -10154,14 +10185,14 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MFD10330</t>
+          <t>MFD10331</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -10170,24 +10201,24 @@
         </is>
       </c>
       <c r="C127">
-        <v>56.5503</v>
+        <v>55.0648</v>
       </c>
       <c r="D127">
-        <v>8.6145</v>
+        <v>10.2187</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>venø</t>
+          <t>sydfynske øhav</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -10197,7 +10228,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -10217,7 +10248,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -10227,19 +10258,19 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MFD10331</t>
+          <t>MFD10332</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -10248,24 +10279,24 @@
         </is>
       </c>
       <c r="C128">
-        <v>55.0648</v>
+        <v>55.6798</v>
       </c>
       <c r="D128">
-        <v>10.2187</v>
+        <v>12.0689</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>dyreborg sydfyn</t>
+          <t>roskilde fjord</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -10275,7 +10306,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -10295,7 +10326,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-30</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -10305,19 +10336,19 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MFD10332</t>
+          <t>MFD10333</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -10326,24 +10357,24 @@
         </is>
       </c>
       <c r="C129">
-        <v>55.6798</v>
+        <v>55.9689</v>
       </c>
       <c r="D129">
-        <v>12.0689</v>
+        <v>11.8461</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>roskilde fjord</t>
+          <t>hundested</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -10353,7 +10384,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -10373,7 +10404,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -10383,19 +10414,19 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>Rocky fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MFD10333</t>
+          <t>MFD10334</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -10404,10 +10435,10 @@
         </is>
       </c>
       <c r="C130">
-        <v>55.9689</v>
+        <v>55.3475</v>
       </c>
       <c r="D130">
-        <v>11.8461</v>
+        <v>11.1011</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -10421,7 +10452,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>hundested</t>
+          <t>storebælt korsør</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -10451,7 +10482,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -10473,7 +10504,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MFD10334</t>
+          <t>MFD10335</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -10482,10 +10513,10 @@
         </is>
       </c>
       <c r="C131">
-        <v>55.3475</v>
+        <v>55.3465</v>
       </c>
       <c r="D131">
-        <v>11.1011</v>
+        <v>11.101</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -10494,12 +10525,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>halsskov</t>
+          <t>storebælt korsør</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -10509,7 +10540,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -10529,7 +10560,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -10544,14 +10575,14 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MFD10335</t>
+          <t>MFD10336</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -10560,10 +10591,10 @@
         </is>
       </c>
       <c r="C132">
-        <v>55.3465</v>
+        <v>55.7588</v>
       </c>
       <c r="D132">
-        <v>11.101</v>
+        <v>11.3493</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -10572,12 +10603,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>halsskov</t>
+          <t>nekselø bugt</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -10587,7 +10618,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -10607,7 +10638,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-09</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -10622,14 +10653,14 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MFD10336</t>
+          <t>MFD10337</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -10638,10 +10669,10 @@
         </is>
       </c>
       <c r="C133">
-        <v>55.7588</v>
+        <v>54.885</v>
       </c>
       <c r="D133">
-        <v>11.3493</v>
+        <v>11.0135</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -10655,7 +10686,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>tårs</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -10685,7 +10716,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-22</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -10707,7 +10738,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MFD10337</t>
+          <t>MFD10338</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -10716,10 +10747,10 @@
         </is>
       </c>
       <c r="C134">
-        <v>54.885</v>
+        <v>55.328</v>
       </c>
       <c r="D134">
-        <v>11.0135</v>
+        <v>11.1284</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -10728,12 +10759,12 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>spodsbjerg lolland</t>
+          <t>storebælt korsør</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -10743,7 +10774,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10763,7 +10794,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -10778,14 +10809,14 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MFD10338</t>
+          <t>MFD10340</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -10794,10 +10825,10 @@
         </is>
       </c>
       <c r="C135">
-        <v>55.328</v>
+        <v>55.7546</v>
       </c>
       <c r="D135">
-        <v>11.1284</v>
+        <v>11.3223</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -10811,7 +10842,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>halsskov</t>
+          <t>nekselø bugt</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -10841,7 +10872,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-09</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -10863,7 +10894,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MFD10340</t>
+          <t>MFD10342</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -10872,10 +10903,10 @@
         </is>
       </c>
       <c r="C136">
-        <v>55.7546</v>
+        <v>55.9513</v>
       </c>
       <c r="D136">
-        <v>11.3223</v>
+        <v>11.8471</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -10884,12 +10915,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>røsnæs</t>
+          <t>hundested</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -10899,7 +10930,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10919,7 +10950,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -10934,14 +10965,14 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MFD10342</t>
+          <t>MFD10343</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -10950,10 +10981,10 @@
         </is>
       </c>
       <c r="C137">
-        <v>55.9513</v>
+        <v>55.1182</v>
       </c>
       <c r="D137">
-        <v>11.8471</v>
+        <v>9.488200000000001</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -10962,12 +10993,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>hundested</t>
+          <t>genner bugt</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -10977,7 +11008,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10997,7 +11028,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-17</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -11012,14 +11043,14 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MFD10343</t>
+          <t>MFD10344</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -11028,10 +11059,10 @@
         </is>
       </c>
       <c r="C138">
-        <v>55.1182</v>
+        <v>56.4481</v>
       </c>
       <c r="D138">
-        <v>9.488200000000001</v>
+        <v>10.955</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -11045,7 +11076,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>genner bugt</t>
+          <t>grenå</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -11075,7 +11106,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -11097,7 +11128,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MFD10344</t>
+          <t>MFD10345</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -11106,10 +11137,10 @@
         </is>
       </c>
       <c r="C139">
-        <v>56.4481</v>
+        <v>55.7492</v>
       </c>
       <c r="D139">
-        <v>10.955</v>
+        <v>12.5947</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -11118,12 +11149,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>djursland</t>
+          <t>skovshoved</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -11133,7 +11164,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -11153,7 +11184,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-02</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -11168,14 +11199,14 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MFD10345</t>
+          <t>MFD10346</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -11184,10 +11215,10 @@
         </is>
       </c>
       <c r="C140">
-        <v>55.7492</v>
+        <v>55.1146</v>
       </c>
       <c r="D140">
-        <v>12.5947</v>
+        <v>9.502700000000001</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -11196,12 +11227,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>øresund</t>
+          <t>genner bugt</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -11211,7 +11242,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -11231,7 +11262,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-17</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -11246,14 +11277,14 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MFD10346</t>
+          <t>MFD10347</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -11262,10 +11293,10 @@
         </is>
       </c>
       <c r="C141">
-        <v>55.1146</v>
+        <v>54.8791</v>
       </c>
       <c r="D141">
-        <v>9.502700000000001</v>
+        <v>11.0152</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -11274,12 +11305,12 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>genner bugt</t>
+          <t>tårs</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -11289,7 +11320,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -11309,7 +11340,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-22</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -11324,14 +11355,14 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MFD10347</t>
+          <t>MFD10348</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -11340,10 +11371,10 @@
         </is>
       </c>
       <c r="C142">
-        <v>54.8791</v>
+        <v>56.0411</v>
       </c>
       <c r="D142">
-        <v>11.0152</v>
+        <v>12.6181</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -11352,12 +11383,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>spodsbjerg lolland</t>
+          <t>helsingør</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -11367,7 +11398,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -11387,7 +11418,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-16</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -11402,14 +11433,14 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MFD10348</t>
+          <t>MFD10349</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -11418,24 +11449,24 @@
         </is>
       </c>
       <c r="C143">
-        <v>56.0411</v>
+        <v>56.7128</v>
       </c>
       <c r="D143">
-        <v>12.6181</v>
+        <v>9.209099999999999</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>helsingør</t>
+          <t>hvalpsund</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -11445,7 +11476,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -11465,7 +11496,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -11475,19 +11506,19 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>MFD10349</t>
+          <t>MFD10350</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -11496,24 +11527,24 @@
         </is>
       </c>
       <c r="C144">
-        <v>56.7128</v>
+        <v>56.0445</v>
       </c>
       <c r="D144">
-        <v>9.209099999999999</v>
+        <v>12.6091</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>hvalpsund</t>
+          <t>helsingør</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -11543,7 +11574,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-16</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -11553,19 +11584,19 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>Sandy fjord seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MFD10350</t>
+          <t>MFD10351</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -11574,24 +11605,24 @@
         </is>
       </c>
       <c r="C145">
-        <v>56.0445</v>
+        <v>56.7105</v>
       </c>
       <c r="D145">
-        <v>12.6091</v>
+        <v>9.207000000000001</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>helsingør</t>
+          <t>hvalpsund</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -11601,7 +11632,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -11621,7 +11652,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-04</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -11631,19 +11662,19 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MFD10351</t>
+          <t>MFD10352</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -11652,24 +11683,24 @@
         </is>
       </c>
       <c r="C146">
-        <v>56.7105</v>
+        <v>55.0224</v>
       </c>
       <c r="D146">
-        <v>9.207000000000001</v>
+        <v>14.9037</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>hvalpsund</t>
+          <t>bornholm syd</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -11679,7 +11710,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -11699,7 +11730,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-15</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -11709,19 +11740,19 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MFD10352</t>
+          <t>MFD10353</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -11730,10 +11761,10 @@
         </is>
       </c>
       <c r="C147">
-        <v>55.0224</v>
+        <v>57.3229</v>
       </c>
       <c r="D147">
-        <v>14.9037</v>
+        <v>11.1329</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -11742,12 +11773,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>bornholm nord</t>
+          <t>læsø</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -11757,7 +11788,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -11777,7 +11808,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-28</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -11792,14 +11823,14 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MFD10353</t>
+          <t>MFD10354</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -11808,10 +11839,10 @@
         </is>
       </c>
       <c r="C148">
-        <v>57.3229</v>
+        <v>55.0416</v>
       </c>
       <c r="D148">
-        <v>11.1329</v>
+        <v>10.2548</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -11820,12 +11851,12 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>læsø</t>
+          <t>sydfynske øhav</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -11835,7 +11866,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -11855,7 +11886,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -11870,14 +11901,14 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Eelgrass coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MFD10354</t>
+          <t>MFD10355</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -11886,10 +11917,10 @@
         </is>
       </c>
       <c r="C149">
-        <v>55.0416</v>
+        <v>57.1265</v>
       </c>
       <c r="D149">
-        <v>10.2548</v>
+        <v>8.620799999999999</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -11898,12 +11929,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>dyreborg sydfyn</t>
+          <t>hanstholm</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -11913,7 +11944,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -11933,7 +11964,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-25</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -11948,14 +11979,14 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>Eelgrass coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MFD10355</t>
+          <t>MFD10356</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -11964,24 +11995,24 @@
         </is>
       </c>
       <c r="C150">
-        <v>57.1265</v>
+        <v>55.133</v>
       </c>
       <c r="D150">
-        <v>8.620799999999999</v>
+        <v>12.0876</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>fjords</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>hanstholm</t>
+          <t>præstø fjord</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -11991,7 +12022,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>eelgrass seabed (eb)</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -12011,7 +12042,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-10</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -12021,19 +12052,19 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Open sea and tidal areas</t>
+          <t>Fjords</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Eelgrass fjord seabed</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MFD10356</t>
+          <t>MFD10358</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -12042,24 +12073,24 @@
         </is>
       </c>
       <c r="C151">
-        <v>55.133</v>
+        <v>54.8378</v>
       </c>
       <c r="D151">
-        <v>12.0876</v>
+        <v>11.4936</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>fjords</t>
+          <t>coast</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>præstø fjord</t>
+          <t>bandholm</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -12069,7 +12100,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>eelgrass seabed (eb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -12089,7 +12120,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -12099,19 +12130,19 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Fjords</t>
+          <t>Open sea and tidal areas</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>Eelgrass fjord seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MFD10358</t>
+          <t>MFD10359</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -12120,10 +12151,10 @@
         </is>
       </c>
       <c r="C152">
-        <v>54.8378</v>
+        <v>55.0205</v>
       </c>
       <c r="D152">
-        <v>11.4936</v>
+        <v>14.9119</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -12132,12 +12163,12 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>bandholm</t>
+          <t>bornholm syd</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -12147,7 +12178,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -12167,7 +12198,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-15</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -12182,14 +12213,14 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MFD10359</t>
+          <t>MFD10360</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -12198,10 +12229,10 @@
         </is>
       </c>
       <c r="C153">
-        <v>55.0205</v>
+        <v>55.759</v>
       </c>
       <c r="D153">
-        <v>14.9119</v>
+        <v>12.6027</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -12210,12 +12241,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>bornholm nord</t>
+          <t>skovshoved</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -12225,7 +12256,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -12245,7 +12276,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-02</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -12260,14 +12291,14 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MFD10360</t>
+          <t>MFD10361</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -12276,10 +12307,10 @@
         </is>
       </c>
       <c r="C154">
-        <v>55.759</v>
+        <v>57.1264</v>
       </c>
       <c r="D154">
-        <v>12.6027</v>
+        <v>8.6151</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -12288,12 +12319,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>øresund</t>
+          <t>hanstholm</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -12303,7 +12334,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>rocky seabed (rb)</t>
+          <t>sandy seabed (sb)</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -12323,7 +12354,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-25</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -12338,14 +12369,14 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>Rocky coastal seabed</t>
+          <t>Sandy coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MFD10361</t>
+          <t>MFD10362</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -12354,10 +12385,10 @@
         </is>
       </c>
       <c r="C155">
-        <v>57.1264</v>
+        <v>55.4464</v>
       </c>
       <c r="D155">
-        <v>8.6151</v>
+        <v>8.406599999999999</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -12366,12 +12397,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>hanstholm</t>
+          <t>vadehavet</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -12381,7 +12412,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sandy seabed (sb)</t>
+          <t>rocky seabed (rb)</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -12401,7 +12432,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-09-24</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -12416,14 +12447,14 @@
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>Sandy coastal seabed</t>
+          <t>Rocky coastal seabed</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MFD10362</t>
+          <t>MFD10363</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -12432,10 +12463,10 @@
         </is>
       </c>
       <c r="C156">
-        <v>55.4464</v>
+        <v>57.1439</v>
       </c>
       <c r="D156">
-        <v>8.406599999999999</v>
+        <v>10.4287</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -12449,7 +12480,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>vadehavet</t>
+          <t>sæby</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -12479,7 +12510,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2019-10-29</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -12493,84 +12524,6 @@
         </is>
       </c>
       <c r="P156" t="inlineStr">
-        <is>
-          <t>Rocky coastal seabed</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>MFD10363</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>sediment</t>
-        </is>
-      </c>
-      <c r="C157">
-        <v>57.3387</v>
-      </c>
-      <c r="D157">
-        <v>10.526</v>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>coast</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>frederikshavn</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-10-22</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>rocky seabed (rb)</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>P11_2</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>Sediment</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>2020-10-22</t>
-        </is>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>Saltwater</t>
-        </is>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P157" t="inlineStr">
         <is>
           <t>Rocky coastal seabed</t>
         </is>
